--- a/invoice_data.xlsx
+++ b/invoice_data.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Efrem\Dropbox\Coding\Projects\IHO_invoice_analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="6798"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="552">
   <si>
     <t>item</t>
   </si>
@@ -1680,8 +1675,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1733,15 +1728,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1750,14 +1739,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1804,7 +1785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1836,10 +1817,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1871,7 +1851,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2047,22 +2026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="J207" sqref="J207"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="26.3671875" customWidth="1"/>
-    <col min="2" max="2" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.15625" customWidth="1"/>
-    <col min="10" max="10" width="13.05078125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2121,6 +2092,9 @@
       <c r="F3">
         <v>810</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>810</v>
       </c>
@@ -2131,7 +2105,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2150,11 +2124,14 @@
       <c r="F4">
         <v>437.5</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>393.75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2163,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2221,7 +2198,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2240,6 +2217,9 @@
       <c r="F7">
         <v>450</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>450</v>
       </c>
@@ -2250,7 +2230,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2269,6 +2249,9 @@
       <c r="F8">
         <v>600</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <v>600</v>
       </c>
@@ -2279,7 +2262,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2298,6 +2281,9 @@
       <c r="F9">
         <v>1350</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>1350</v>
       </c>
@@ -2308,7 +2294,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2327,6 +2313,9 @@
       <c r="F10">
         <v>220</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>220</v>
       </c>
@@ -2337,7 +2326,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2361,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2391,6 +2380,9 @@
       <c r="F12">
         <v>360</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12">
         <v>360</v>
       </c>
@@ -2401,7 +2393,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2420,6 +2412,9 @@
       <c r="F13">
         <v>600</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13">
         <v>600</v>
       </c>
@@ -2430,7 +2425,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2449,11 +2444,14 @@
       <c r="F14">
         <v>780</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14">
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +2521,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2577,6 +2575,9 @@
       <c r="F18">
         <v>900</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="H18">
         <v>900</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2676,11 +2677,14 @@
       <c r="F21">
         <v>220</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2699,11 +2703,14 @@
       <c r="F22">
         <v>275</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="H22">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -2738,7 +2745,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -2808,7 +2815,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2827,6 +2834,9 @@
       <c r="F26">
         <v>300</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
       <c r="H26">
         <v>300</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2856,11 +2866,14 @@
       <c r="F27">
         <v>360</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2927,7 +2940,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -2981,6 +2994,9 @@
       <c r="F31">
         <v>825</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
       <c r="H31">
         <v>825</v>
       </c>
@@ -2991,7 +3007,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -3023,7 +3039,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -3055,7 +3071,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -3074,6 +3090,9 @@
       <c r="F34">
         <v>270</v>
       </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
       <c r="H34">
         <v>270</v>
       </c>
@@ -3084,7 +3103,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -3119,7 +3138,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -3138,6 +3157,9 @@
       <c r="F36">
         <v>450</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
       <c r="H36">
         <v>450</v>
       </c>
@@ -3148,7 +3170,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -3183,7 +3205,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -3218,7 +3240,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,11 +3259,14 @@
       <c r="F39">
         <v>330</v>
       </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
       <c r="H39">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,11 +3285,14 @@
       <c r="F40">
         <v>225</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
       <c r="H40">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -3296,7 +3324,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -3315,6 +3343,9 @@
       <c r="F42">
         <v>220</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <v>220</v>
       </c>
@@ -3325,7 +3356,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3391,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -3379,6 +3410,9 @@
       <c r="F44">
         <v>560</v>
       </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
       <c r="H44">
         <v>560</v>
       </c>
@@ -3389,7 +3423,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -3424,7 +3458,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
@@ -3459,7 +3493,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -3478,6 +3512,9 @@
       <c r="F47">
         <v>275</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <v>275</v>
       </c>
@@ -3488,7 +3525,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -3517,7 +3554,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -3536,11 +3573,14 @@
       <c r="F49">
         <v>390</v>
       </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,11 +3599,14 @@
       <c r="F50">
         <v>275</v>
       </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
       <c r="H50">
         <v>247.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -3582,6 +3625,9 @@
       <c r="F51">
         <v>300</v>
       </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
       <c r="H51">
         <v>300</v>
       </c>
@@ -3592,7 +3638,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -3611,6 +3657,9 @@
       <c r="F52">
         <v>110</v>
       </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
       <c r="H52">
         <v>110</v>
       </c>
@@ -3621,7 +3670,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -3656,7 +3705,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -3691,7 +3740,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -3710,6 +3759,9 @@
       <c r="F55">
         <v>390</v>
       </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
       <c r="H55">
         <v>390</v>
       </c>
@@ -3720,7 +3772,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -3739,6 +3791,9 @@
       <c r="F56">
         <v>420</v>
       </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
       <c r="H56">
         <v>420</v>
       </c>
@@ -3749,7 +3804,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -3768,6 +3823,9 @@
       <c r="F57">
         <v>682.5</v>
       </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
       <c r="H57">
         <v>682.5</v>
       </c>
@@ -3778,7 +3836,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3810,7 +3868,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
@@ -3830,7 +3888,7 @@
         <v>630</v>
       </c>
       <c r="G59">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H59">
         <v>283.5</v>
@@ -3845,7 +3903,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3880,7 +3938,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
@@ -3915,7 +3973,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -3950,7 +4008,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +4043,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -4004,6 +4062,9 @@
       <c r="F64">
         <v>650</v>
       </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
       <c r="H64">
         <v>650</v>
       </c>
@@ -4011,7 +4072,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
@@ -4030,6 +4091,9 @@
       <c r="F65">
         <v>720</v>
       </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
       <c r="H65">
         <v>720</v>
       </c>
@@ -4040,7 +4104,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -4059,11 +4123,14 @@
       <c r="F66">
         <v>360</v>
       </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
       <c r="H66">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
@@ -4082,11 +4149,14 @@
       <c r="F67">
         <v>390</v>
       </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
       <c r="H67">
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
@@ -4118,7 +4188,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -4153,7 +4223,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -4188,7 +4258,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
@@ -4207,11 +4277,14 @@
       <c r="F71">
         <v>275</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="H71">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
@@ -4243,7 +4316,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
@@ -4262,6 +4335,9 @@
       <c r="F73">
         <v>165</v>
       </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73">
         <v>165</v>
       </c>
@@ -4272,7 +4348,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
@@ -4292,7 +4368,7 @@
         <v>660</v>
       </c>
       <c r="G74">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H74">
         <v>297</v>
@@ -4301,7 +4377,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -4320,6 +4396,9 @@
       <c r="F75">
         <v>1275</v>
       </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
       <c r="H75">
         <v>1275</v>
       </c>
@@ -4330,7 +4409,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
@@ -4349,6 +4428,9 @@
       <c r="F76">
         <v>590</v>
       </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="H76">
         <v>590</v>
       </c>
@@ -4359,7 +4441,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
@@ -4391,7 +4473,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -4410,6 +4492,9 @@
       <c r="F78">
         <v>590</v>
       </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
       <c r="H78">
         <v>590</v>
       </c>
@@ -4420,7 +4505,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
@@ -4439,6 +4524,9 @@
       <c r="F79">
         <v>450</v>
       </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
       <c r="H79">
         <v>450</v>
       </c>
@@ -4446,7 +4534,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
@@ -4481,7 +4569,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>71</v>
       </c>
@@ -4516,12 +4604,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="3">
-        <v>41983</v>
+      <c r="B82" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C82" t="s">
         <v>527</v>
@@ -4551,7 +4639,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -4586,7 +4674,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -4621,7 +4709,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -4656,7 +4744,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -4675,6 +4763,9 @@
       <c r="F86">
         <v>885</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86">
         <v>885</v>
       </c>
@@ -4685,7 +4776,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
@@ -4720,7 +4811,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
@@ -4739,6 +4830,9 @@
       <c r="F88">
         <v>420</v>
       </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
       <c r="H88">
         <v>420</v>
       </c>
@@ -4749,7 +4843,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4768,6 +4862,9 @@
       <c r="F89">
         <v>450</v>
       </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
       <c r="H89">
         <v>450</v>
       </c>
@@ -4778,7 +4875,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>96</v>
       </c>
@@ -4797,6 +4894,9 @@
       <c r="F90">
         <v>737.5</v>
       </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
       <c r="H90">
         <v>737.5</v>
       </c>
@@ -4807,7 +4907,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>97</v>
       </c>
@@ -4826,11 +4926,14 @@
       <c r="F91">
         <v>280</v>
       </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
       <c r="H91">
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>76</v>
       </c>
@@ -4849,11 +4952,14 @@
       <c r="F92">
         <v>825</v>
       </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
       <c r="H92">
         <v>825</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -4885,7 +4991,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -4904,6 +5010,9 @@
       <c r="F94">
         <v>420</v>
       </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
       <c r="H94">
         <v>420</v>
       </c>
@@ -4914,7 +5023,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -4933,6 +5042,9 @@
       <c r="F95">
         <v>840</v>
       </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
       <c r="H95">
         <v>840</v>
       </c>
@@ -4946,7 +5058,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
         <v>75</v>
       </c>
@@ -4965,11 +5077,14 @@
       <c r="F96">
         <v>980</v>
       </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
       <c r="H96">
         <v>980</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -4988,6 +5103,9 @@
       <c r="F97">
         <v>1020</v>
       </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
       <c r="H97">
         <v>1020</v>
       </c>
@@ -4998,7 +5116,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -5018,7 +5136,7 @@
         <v>885</v>
       </c>
       <c r="G98">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="H98">
         <v>628.35</v>
@@ -5033,7 +5151,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -5052,6 +5170,9 @@
       <c r="F99">
         <v>360</v>
       </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
       <c r="H99">
         <v>360</v>
       </c>
@@ -5065,7 +5186,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -5091,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -5110,6 +5231,9 @@
       <c r="F101">
         <v>590</v>
       </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
       <c r="H101">
         <v>590</v>
       </c>
@@ -5120,7 +5244,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -5133,11 +5257,14 @@
       <c r="D102">
         <v>250</v>
       </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
       <c r="H102">
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>74</v>
       </c>
@@ -5156,6 +5283,9 @@
       <c r="F103">
         <v>1020</v>
       </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
       <c r="H103">
         <v>1020</v>
       </c>
@@ -5166,7 +5296,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -5185,6 +5315,9 @@
       <c r="F104">
         <v>765</v>
       </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
       <c r="H104">
         <v>765</v>
       </c>
@@ -5195,7 +5328,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
@@ -5214,11 +5347,14 @@
       <c r="F105">
         <v>0</v>
       </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
       <c r="H105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -5250,7 +5386,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -5269,11 +5405,14 @@
       <c r="F107">
         <v>300</v>
       </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
       <c r="H107">
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -5292,6 +5431,9 @@
       <c r="F108">
         <v>186</v>
       </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
       <c r="H108">
         <v>186</v>
       </c>
@@ -5302,7 +5444,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -5321,6 +5463,9 @@
       <c r="F109">
         <v>1575</v>
       </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
       <c r="H109">
         <v>1575</v>
       </c>
@@ -5331,7 +5476,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -5350,6 +5495,9 @@
       <c r="F110">
         <v>945</v>
       </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
       <c r="H110">
         <v>945</v>
       </c>
@@ -5360,7 +5508,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -5379,6 +5527,9 @@
       <c r="F111">
         <v>450</v>
       </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
       <c r="H111">
         <v>450</v>
       </c>
@@ -5386,7 +5537,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>73</v>
       </c>
@@ -5405,6 +5556,9 @@
       <c r="F112">
         <v>1025</v>
       </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
       <c r="H112">
         <v>1025</v>
       </c>
@@ -5412,7 +5566,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -5431,6 +5585,9 @@
       <c r="F113">
         <v>590</v>
       </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
       <c r="H113">
         <v>590</v>
       </c>
@@ -5444,7 +5601,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>72</v>
       </c>
@@ -5479,7 +5636,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -5499,10 +5656,10 @@
         <v>360</v>
       </c>
       <c r="G115">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="H115">
-        <v>151.19999999999999</v>
+        <v>151.2</v>
       </c>
       <c r="I115" t="s">
         <v>537</v>
@@ -5511,7 +5668,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -5530,6 +5687,9 @@
       <c r="F116">
         <v>562.5</v>
       </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
       <c r="H116">
         <v>562.5</v>
       </c>
@@ -5540,7 +5700,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
         <v>70</v>
       </c>
@@ -5575,7 +5735,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
@@ -5594,6 +5754,9 @@
       <c r="F118">
         <v>1575</v>
       </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
       <c r="H118">
         <v>1575</v>
       </c>
@@ -5604,7 +5767,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -5639,7 +5802,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -5658,11 +5821,14 @@
       <c r="F120">
         <v>50</v>
       </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
       <c r="H120">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -5681,6 +5847,9 @@
       <c r="F121">
         <v>450</v>
       </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
       <c r="H121">
         <v>450</v>
       </c>
@@ -5691,7 +5860,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
@@ -5710,6 +5879,9 @@
       <c r="F122">
         <v>900</v>
       </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
       <c r="H122">
         <v>900</v>
       </c>
@@ -5720,7 +5892,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -5739,6 +5911,9 @@
       <c r="F123">
         <v>420</v>
       </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
       <c r="H123">
         <v>420</v>
       </c>
@@ -5749,7 +5924,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
         <v>69</v>
       </c>
@@ -5784,7 +5959,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -5803,6 +5978,9 @@
       <c r="F125">
         <v>737.5</v>
       </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
       <c r="H125">
         <v>737.5</v>
       </c>
@@ -5813,7 +5991,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -5845,7 +6023,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -5864,6 +6042,9 @@
       <c r="F127">
         <v>1020</v>
       </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
       <c r="H127">
         <v>1020</v>
       </c>
@@ -5874,7 +6055,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -5893,6 +6074,9 @@
       <c r="F128">
         <v>450</v>
       </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
       <c r="H128">
         <v>450</v>
       </c>
@@ -5903,7 +6087,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -5922,6 +6106,9 @@
       <c r="F129">
         <v>590</v>
       </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
       <c r="H129">
         <v>590</v>
       </c>
@@ -5932,7 +6119,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
         <v>65</v>
       </c>
@@ -5951,6 +6138,9 @@
       <c r="F130">
         <v>1575</v>
       </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
       <c r="H130">
         <v>1575</v>
       </c>
@@ -5961,7 +6151,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -5996,7 +6186,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -6015,6 +6205,9 @@
       <c r="F132">
         <v>540</v>
       </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
       <c r="H132">
         <v>540</v>
       </c>
@@ -6028,7 +6221,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -6060,7 +6253,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
         <v>66</v>
       </c>
@@ -6079,6 +6272,9 @@
       <c r="F134">
         <v>1032.5</v>
       </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
       <c r="H134">
         <v>1032.5</v>
       </c>
@@ -6089,7 +6285,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -6121,7 +6317,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -6140,6 +6336,9 @@
       <c r="F136">
         <v>360</v>
       </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
       <c r="H136">
         <v>360</v>
       </c>
@@ -6150,7 +6349,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -6169,6 +6368,9 @@
       <c r="F137">
         <v>250</v>
       </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
       <c r="H137">
         <v>250</v>
       </c>
@@ -6182,7 +6384,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -6208,7 +6410,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
         <v>135</v>
       </c>
@@ -6227,6 +6429,9 @@
       <c r="F139">
         <v>1470</v>
       </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
       <c r="H139">
         <v>1249.5</v>
       </c>
@@ -6240,7 +6445,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
         <v>136</v>
       </c>
@@ -6266,7 +6471,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
@@ -6285,6 +6490,9 @@
       <c r="F141">
         <v>737.5</v>
       </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
       <c r="H141">
         <v>737.5</v>
       </c>
@@ -6295,7 +6503,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
         <v>138</v>
       </c>
@@ -6330,7 +6538,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
         <v>62</v>
       </c>
@@ -6365,7 +6573,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
         <v>139</v>
       </c>
@@ -6384,11 +6592,14 @@
       <c r="F144">
         <v>350</v>
       </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
       <c r="H144">
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
         <v>140</v>
       </c>
@@ -6423,7 +6634,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
         <v>141</v>
       </c>
@@ -6442,6 +6653,9 @@
       <c r="F146">
         <v>945</v>
       </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
       <c r="H146">
         <v>945</v>
       </c>
@@ -6452,7 +6666,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
         <v>142</v>
       </c>
@@ -6471,6 +6685,9 @@
       <c r="F147">
         <v>450</v>
       </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
       <c r="H147">
         <v>450</v>
       </c>
@@ -6481,7 +6698,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
         <v>143</v>
       </c>
@@ -6500,6 +6717,9 @@
       <c r="F148">
         <v>300</v>
       </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
       <c r="H148">
         <v>300</v>
       </c>
@@ -6510,7 +6730,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
         <v>144</v>
       </c>
@@ -6529,6 +6749,9 @@
       <c r="F149">
         <v>737.5</v>
       </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
       <c r="H149">
         <v>737.5</v>
       </c>
@@ -6539,7 +6762,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
         <v>58</v>
       </c>
@@ -6558,11 +6781,14 @@
       <c r="F150">
         <v>825</v>
       </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
       <c r="H150">
         <v>825</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
         <v>145</v>
       </c>
@@ -6581,6 +6807,9 @@
       <c r="F151">
         <v>945</v>
       </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
       <c r="H151">
         <v>945</v>
       </c>
@@ -6591,7 +6820,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
         <v>57</v>
       </c>
@@ -6620,7 +6849,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
         <v>55</v>
       </c>
@@ -6655,7 +6884,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
         <v>146</v>
       </c>
@@ -6674,6 +6903,9 @@
       <c r="F154">
         <v>525</v>
       </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
       <c r="H154">
         <v>525</v>
       </c>
@@ -6684,7 +6916,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
         <v>147</v>
       </c>
@@ -6703,11 +6935,14 @@
       <c r="F155">
         <v>50</v>
       </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
       <c r="H155">
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
         <v>148</v>
       </c>
@@ -6726,6 +6961,9 @@
       <c r="F156">
         <v>1260</v>
       </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
       <c r="H156">
         <v>1260</v>
       </c>
@@ -6736,7 +6974,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
         <v>149</v>
       </c>
@@ -6755,11 +6993,14 @@
       <c r="F157">
         <v>280</v>
       </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
       <c r="H157">
         <v>280</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
         <v>54</v>
       </c>
@@ -6794,7 +7035,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
         <v>150</v>
       </c>
@@ -6813,6 +7054,9 @@
       <c r="F159">
         <v>442.5</v>
       </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
       <c r="H159">
         <v>442.5</v>
       </c>
@@ -6823,7 +7067,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
         <v>151</v>
       </c>
@@ -6842,6 +7086,9 @@
       <c r="F160">
         <v>885</v>
       </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <v>885</v>
       </c>
@@ -6852,7 +7099,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
         <v>52</v>
       </c>
@@ -6887,7 +7134,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
         <v>152</v>
       </c>
@@ -6910,7 +7157,7 @@
         <v>0.93</v>
       </c>
       <c r="H162">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="I162" t="s">
         <v>537</v>
@@ -6922,7 +7169,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -6941,6 +7188,9 @@
       <c r="F163">
         <v>562.5</v>
       </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="H163">
         <v>562.5</v>
       </c>
@@ -6951,7 +7201,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
         <v>154</v>
       </c>
@@ -6970,6 +7220,9 @@
       <c r="F164">
         <v>885</v>
       </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
       <c r="H164">
         <v>885</v>
       </c>
@@ -6980,7 +7233,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
         <v>50</v>
       </c>
@@ -7012,7 +7265,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
         <v>155</v>
       </c>
@@ -7031,6 +7284,9 @@
       <c r="F166">
         <v>885</v>
       </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
       <c r="H166">
         <v>885</v>
       </c>
@@ -7041,7 +7297,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12">
       <c r="A167" s="1" t="s">
         <v>156</v>
       </c>
@@ -7076,7 +7332,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12">
       <c r="A168" s="1" t="s">
         <v>157</v>
       </c>
@@ -7095,11 +7351,14 @@
       <c r="F168">
         <v>50</v>
       </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
       <c r="H168">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12">
       <c r="A169" s="1" t="s">
         <v>158</v>
       </c>
@@ -7134,7 +7393,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12">
       <c r="A170" s="1" t="s">
         <v>159</v>
       </c>
@@ -7153,6 +7412,9 @@
       <c r="F170">
         <v>210</v>
       </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
       <c r="H170">
         <v>210</v>
       </c>
@@ -7163,7 +7425,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
         <v>160</v>
       </c>
@@ -7198,7 +7460,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
         <v>161</v>
       </c>
@@ -7233,7 +7495,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -7252,6 +7514,9 @@
       <c r="F173">
         <v>675</v>
       </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
       <c r="H173">
         <v>675</v>
       </c>
@@ -7259,7 +7524,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12">
       <c r="A174" s="1" t="s">
         <v>163</v>
       </c>
@@ -7278,6 +7543,9 @@
       <c r="F174">
         <v>252</v>
       </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
       <c r="H174">
         <v>252</v>
       </c>
@@ -7291,7 +7559,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
         <v>44</v>
       </c>
@@ -7326,7 +7594,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
         <v>46</v>
       </c>
@@ -7361,7 +7629,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12">
       <c r="A177" s="1" t="s">
         <v>164</v>
       </c>
@@ -7380,6 +7648,9 @@
       <c r="F177">
         <v>1402.5</v>
       </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
       <c r="H177">
         <v>1402.5</v>
       </c>
@@ -7390,7 +7661,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12">
       <c r="A178" s="1" t="s">
         <v>45</v>
       </c>
@@ -7409,6 +7680,9 @@
       <c r="F178">
         <v>675</v>
       </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
       <c r="H178">
         <v>675</v>
       </c>
@@ -7419,7 +7693,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
         <v>165</v>
       </c>
@@ -7438,6 +7712,9 @@
       <c r="F179">
         <v>2100</v>
       </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
       <c r="H179">
         <v>1785</v>
       </c>
@@ -7451,7 +7728,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12">
       <c r="A180" s="1" t="s">
         <v>166</v>
       </c>
@@ -7486,7 +7763,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12">
       <c r="A181" s="1" t="s">
         <v>167</v>
       </c>
@@ -7505,11 +7782,14 @@
       <c r="F181">
         <v>1100</v>
       </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
       <c r="H181">
         <v>1100</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12">
       <c r="A182" s="1" t="s">
         <v>168</v>
       </c>
@@ -7528,6 +7808,9 @@
       <c r="F182">
         <v>1800</v>
       </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <v>1800</v>
       </c>
@@ -7538,7 +7821,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12">
       <c r="A183" s="1" t="s">
         <v>169</v>
       </c>
@@ -7557,6 +7840,9 @@
       <c r="F183">
         <v>590</v>
       </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <v>590</v>
       </c>
@@ -7567,7 +7853,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12">
       <c r="A184" s="1" t="s">
         <v>170</v>
       </c>
@@ -7586,6 +7872,9 @@
       <c r="F184">
         <v>945</v>
       </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <v>945</v>
       </c>
@@ -7596,7 +7885,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12">
       <c r="A185" s="1" t="s">
         <v>171</v>
       </c>
@@ -7631,7 +7920,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12">
       <c r="A186" s="1" t="s">
         <v>172</v>
       </c>
@@ -7650,6 +7939,9 @@
       <c r="F186">
         <v>450</v>
       </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <v>450</v>
       </c>
@@ -7660,7 +7952,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12">
       <c r="A187" s="1" t="s">
         <v>173</v>
       </c>
@@ -7679,11 +7971,14 @@
       <c r="F187">
         <v>200</v>
       </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12">
       <c r="A188" s="1" t="s">
         <v>174</v>
       </c>
@@ -7702,6 +7997,9 @@
       <c r="F188">
         <v>675</v>
       </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <v>675</v>
       </c>
@@ -7712,7 +8010,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12">
       <c r="A189" s="1" t="s">
         <v>175</v>
       </c>
@@ -7731,6 +8029,9 @@
       <c r="F189">
         <v>765</v>
       </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <v>765</v>
       </c>
@@ -7741,7 +8042,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12">
       <c r="A190" s="1" t="s">
         <v>176</v>
       </c>
@@ -7760,11 +8061,14 @@
       <c r="F190">
         <v>300</v>
       </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
       <c r="H190">
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
         <v>177</v>
       </c>
@@ -7783,6 +8087,9 @@
       <c r="F191">
         <v>885</v>
       </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
       <c r="H191">
         <v>885</v>
       </c>
@@ -7793,7 +8100,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
         <v>178</v>
       </c>
@@ -7812,6 +8119,9 @@
       <c r="F192">
         <v>675</v>
       </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
       <c r="H192">
         <v>675</v>
       </c>
@@ -7822,7 +8132,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12">
       <c r="A193" s="1" t="s">
         <v>179</v>
       </c>
@@ -7841,6 +8151,9 @@
       <c r="F193">
         <v>900</v>
       </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <v>900</v>
       </c>
@@ -7851,7 +8164,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12">
       <c r="A194" s="1" t="s">
         <v>180</v>
       </c>
@@ -7870,6 +8183,9 @@
       <c r="F194">
         <v>1260</v>
       </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
       <c r="H194">
         <v>1260</v>
       </c>
@@ -7880,7 +8196,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12">
       <c r="A195" s="1" t="s">
         <v>181</v>
       </c>
@@ -7915,7 +8231,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12">
       <c r="A196" s="1" t="s">
         <v>182</v>
       </c>
@@ -7934,11 +8250,14 @@
       <c r="F196">
         <v>300</v>
       </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
       <c r="H196">
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12">
       <c r="A197" s="1" t="s">
         <v>183</v>
       </c>
@@ -7957,6 +8276,9 @@
       <c r="F197">
         <v>1020</v>
       </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <v>1020</v>
       </c>
@@ -7967,7 +8289,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12">
       <c r="A198" s="1" t="s">
         <v>184</v>
       </c>
@@ -8002,7 +8324,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12">
       <c r="A199" s="1" t="s">
         <v>41</v>
       </c>
@@ -8034,7 +8356,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12">
       <c r="A200" s="1" t="s">
         <v>185</v>
       </c>
@@ -8069,7 +8391,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12">
       <c r="A201" s="1" t="s">
         <v>186</v>
       </c>
@@ -8089,7 +8411,7 @@
         <v>765</v>
       </c>
       <c r="G201">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H201">
         <v>344.25</v>
@@ -8104,7 +8426,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12">
       <c r="A202" s="1" t="s">
         <v>187</v>
       </c>
@@ -8123,11 +8445,14 @@
       <c r="F202">
         <v>350</v>
       </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
         <v>350</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12">
       <c r="A203" s="1" t="s">
         <v>188</v>
       </c>
@@ -8146,6 +8471,9 @@
       <c r="F203">
         <v>885</v>
       </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
       <c r="H203">
         <v>885</v>
       </c>
@@ -8156,7 +8484,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12">
       <c r="A204" s="1" t="s">
         <v>38</v>
       </c>
@@ -8191,7 +8519,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12">
       <c r="A205" s="1" t="s">
         <v>39</v>
       </c>
@@ -8226,7 +8554,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12">
       <c r="A206" s="1" t="s">
         <v>40</v>
       </c>
@@ -8245,6 +8573,9 @@
       <c r="F206">
         <v>1402.5</v>
       </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <v>1402.5</v>
       </c>
@@ -8255,7 +8586,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12">
       <c r="A207" s="1" t="s">
         <v>189</v>
       </c>
@@ -8274,6 +8605,9 @@
       <c r="F207">
         <v>510</v>
       </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <v>510</v>
       </c>
@@ -8284,7 +8618,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12">
       <c r="A208" s="1" t="s">
         <v>190</v>
       </c>
@@ -8303,6 +8637,9 @@
       <c r="F208">
         <v>300</v>
       </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
       <c r="H208">
         <v>300</v>
       </c>
@@ -8313,7 +8650,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12">
       <c r="A209" s="1" t="s">
         <v>36</v>
       </c>
@@ -8332,11 +8669,14 @@
       <c r="F209">
         <v>980</v>
       </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <v>980</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12">
       <c r="A210" s="1" t="s">
         <v>191</v>
       </c>
@@ -8371,7 +8711,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12">
       <c r="A211" s="1" t="s">
         <v>37</v>
       </c>
@@ -8403,7 +8743,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12">
       <c r="A212" s="1" t="s">
         <v>192</v>
       </c>
@@ -8422,6 +8762,9 @@
       <c r="F212">
         <v>450</v>
       </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
       <c r="H212">
         <v>450</v>
       </c>
@@ -8432,7 +8775,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12">
       <c r="A213" s="1" t="s">
         <v>193</v>
       </c>
@@ -8451,6 +8794,9 @@
       <c r="F213">
         <v>420</v>
       </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
       <c r="H213">
         <v>420</v>
       </c>
@@ -8461,7 +8807,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12">
       <c r="A214" s="1" t="s">
         <v>194</v>
       </c>
@@ -8480,6 +8826,9 @@
       <c r="F214">
         <v>540</v>
       </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
       <c r="H214">
         <v>540</v>
       </c>
@@ -8493,7 +8842,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12">
       <c r="A215" s="1" t="s">
         <v>195</v>
       </c>
@@ -8512,6 +8861,9 @@
       <c r="F215">
         <v>737.5</v>
       </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
       <c r="H215">
         <v>737.5</v>
       </c>
@@ -8525,7 +8877,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12">
       <c r="A216" s="1" t="s">
         <v>196</v>
       </c>
@@ -8560,7 +8912,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12">
       <c r="A217" s="1" t="s">
         <v>197</v>
       </c>
@@ -8595,7 +8947,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12">
       <c r="A218" s="1" t="s">
         <v>198</v>
       </c>
@@ -8614,6 +8966,9 @@
       <c r="F218">
         <v>450</v>
       </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
       <c r="H218">
         <v>450</v>
       </c>
@@ -8624,7 +8979,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12">
       <c r="A219" s="1" t="s">
         <v>199</v>
       </c>
@@ -8643,6 +8998,9 @@
       <c r="F219">
         <v>337.5</v>
       </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
       <c r="H219">
         <v>337.5</v>
       </c>
@@ -8653,7 +9011,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12">
       <c r="A220" s="1" t="s">
         <v>200</v>
       </c>
@@ -8672,11 +9030,14 @@
       <c r="F220">
         <v>1180</v>
       </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
       <c r="H220">
         <v>1180</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12">
       <c r="A221" s="1" t="s">
         <v>201</v>
       </c>
@@ -8711,7 +9072,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12">
       <c r="A222" s="1" t="s">
         <v>32</v>
       </c>
@@ -8746,7 +9107,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12">
       <c r="A223" s="1" t="s">
         <v>202</v>
       </c>
@@ -8765,6 +9126,9 @@
       <c r="F223">
         <v>630</v>
       </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
       <c r="H223">
         <v>630</v>
       </c>
@@ -8775,7 +9139,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12">
       <c r="A224" s="1" t="s">
         <v>203</v>
       </c>
@@ -8813,7 +9177,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12">
       <c r="A225" s="1" t="s">
         <v>30</v>
       </c>
@@ -8832,11 +9196,14 @@
       <c r="F225">
         <v>560</v>
       </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
       <c r="H225">
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12">
       <c r="A226" s="1" t="s">
         <v>29</v>
       </c>
@@ -8871,7 +9238,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12">
       <c r="A227" s="1" t="s">
         <v>28</v>
       </c>
@@ -8906,7 +9273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12">
       <c r="A228" s="1" t="s">
         <v>27</v>
       </c>
@@ -8925,6 +9292,9 @@
       <c r="F228">
         <v>1275</v>
       </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
       <c r="H228">
         <v>1275</v>
       </c>
@@ -8935,7 +9305,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12">
       <c r="A229" s="1" t="s">
         <v>204</v>
       </c>
@@ -8954,6 +9324,9 @@
       <c r="F229">
         <v>737.5</v>
       </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
       <c r="H229">
         <v>737.5</v>
       </c>
@@ -8964,7 +9337,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>205</v>
       </c>
@@ -8983,6 +9356,9 @@
       <c r="F230">
         <v>1417.5</v>
       </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
       <c r="H230">
         <v>1417.5</v>
       </c>
@@ -8993,7 +9369,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12">
       <c r="A231" s="1" t="s">
         <v>34</v>
       </c>
@@ -9028,7 +9404,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
         <v>25</v>
       </c>
@@ -9047,6 +9423,9 @@
       <c r="F232">
         <v>1020</v>
       </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
       <c r="H232">
         <v>1020</v>
       </c>
@@ -9060,7 +9439,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12">
       <c r="A233" s="1" t="s">
         <v>26</v>
       </c>
@@ -9095,7 +9474,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
         <v>206</v>
       </c>
@@ -9114,6 +9493,9 @@
       <c r="F234">
         <v>885</v>
       </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <v>885</v>
       </c>
@@ -9127,7 +9509,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
         <v>207</v>
       </c>
@@ -9146,6 +9528,9 @@
       <c r="F235">
         <v>787.5</v>
       </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
       <c r="H235">
         <v>787.5</v>
       </c>
@@ -9156,7 +9541,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
         <v>208</v>
       </c>
@@ -9191,7 +9576,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12">
       <c r="A237" s="1" t="s">
         <v>209</v>
       </c>
@@ -9210,6 +9595,9 @@
       <c r="F237">
         <v>360</v>
       </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
       <c r="H237">
         <v>360</v>
       </c>
@@ -9220,7 +9608,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12">
       <c r="A238" s="1" t="s">
         <v>210</v>
       </c>
@@ -9239,6 +9627,9 @@
       <c r="F238">
         <v>675</v>
       </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
       <c r="H238">
         <v>675</v>
       </c>
@@ -9249,7 +9640,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12">
       <c r="A239" s="1" t="s">
         <v>211</v>
       </c>
@@ -9284,7 +9675,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12">
       <c r="A240" s="1" t="s">
         <v>212</v>
       </c>
@@ -9319,7 +9710,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
@@ -9338,11 +9729,14 @@
       <c r="F241">
         <v>1230</v>
       </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
       <c r="H241">
         <v>1230</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12">
       <c r="A242" s="1" t="s">
         <v>24</v>
       </c>
@@ -9377,7 +9771,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12">
       <c r="A243" s="1" t="s">
         <v>213</v>
       </c>
@@ -9396,6 +9790,9 @@
       <c r="F243">
         <v>590</v>
       </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
       <c r="H243">
         <v>590</v>
       </c>
@@ -9406,7 +9803,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12">
       <c r="A244" s="1" t="s">
         <v>214</v>
       </c>
@@ -9441,7 +9838,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12">
       <c r="A245" s="1" t="s">
         <v>22</v>
       </c>
@@ -9460,6 +9857,9 @@
       <c r="F245">
         <v>820</v>
       </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
       <c r="H245">
         <v>820</v>
       </c>
@@ -9470,7 +9870,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12">
       <c r="A246" s="1" t="s">
         <v>215</v>
       </c>
@@ -9489,11 +9889,14 @@
       <c r="F246">
         <v>50</v>
       </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
       <c r="H246">
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12">
       <c r="A247" s="1" t="s">
         <v>216</v>
       </c>
@@ -9528,7 +9931,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12">
       <c r="A248" s="1" t="s">
         <v>217</v>
       </c>
@@ -9547,6 +9950,9 @@
       <c r="F248">
         <v>360</v>
       </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
       <c r="H248">
         <v>360</v>
       </c>
@@ -9557,7 +9963,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
@@ -9592,7 +9998,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12">
       <c r="A250" s="1" t="s">
         <v>218</v>
       </c>
@@ -9611,6 +10017,9 @@
       <c r="F250">
         <v>765</v>
       </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
       <c r="H250">
         <v>765</v>
       </c>
@@ -9624,7 +10033,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12">
       <c r="A251" s="1" t="s">
         <v>219</v>
       </c>
@@ -9643,6 +10052,9 @@
       <c r="F251">
         <v>900</v>
       </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
       <c r="H251">
         <v>450</v>
       </c>
@@ -9653,7 +10065,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12">
       <c r="A252" s="1" t="s">
         <v>220</v>
       </c>
@@ -9688,7 +10100,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12">
       <c r="A253" s="1" t="s">
         <v>221</v>
       </c>
@@ -9707,6 +10119,9 @@
       <c r="F253">
         <v>1032.5</v>
       </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
       <c r="H253">
         <v>1032.5</v>
       </c>
@@ -9720,7 +10135,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12">
       <c r="A254" s="1" t="s">
         <v>222</v>
       </c>
@@ -9755,7 +10170,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12">
       <c r="A255" s="1" t="s">
         <v>17</v>
       </c>
@@ -9774,6 +10189,9 @@
       <c r="F255">
         <v>900</v>
       </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
       <c r="H255">
         <v>900</v>
       </c>
@@ -9784,7 +10202,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12">
       <c r="A256" s="1" t="s">
         <v>223</v>
       </c>
@@ -9816,7 +10234,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12">
       <c r="A257" s="1" t="s">
         <v>224</v>
       </c>
@@ -9835,11 +10253,14 @@
       <c r="F257">
         <v>825</v>
       </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
       <c r="H257">
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12">
       <c r="A258" s="1" t="s">
         <v>225</v>
       </c>
@@ -9874,7 +10295,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12">
       <c r="A259" s="1" t="s">
         <v>226</v>
       </c>
@@ -9893,6 +10314,9 @@
       <c r="F259">
         <v>450</v>
       </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
       <c r="H259">
         <v>450</v>
       </c>
@@ -9903,7 +10327,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12">
       <c r="A260" s="1" t="s">
         <v>16</v>
       </c>
@@ -9922,6 +10346,9 @@
       <c r="F260">
         <v>675</v>
       </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
       <c r="H260">
         <v>675</v>
       </c>
@@ -9932,7 +10359,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12">
       <c r="A261" s="1" t="s">
         <v>227</v>
       </c>
@@ -9951,6 +10378,9 @@
       <c r="F261">
         <v>590</v>
       </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
       <c r="H261">
         <v>590</v>
       </c>
@@ -9961,7 +10391,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12">
       <c r="A262" s="1" t="s">
         <v>15</v>
       </c>
@@ -9996,7 +10426,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12">
       <c r="A263" s="1" t="s">
         <v>14</v>
       </c>
@@ -10015,6 +10445,9 @@
       <c r="F263">
         <v>450</v>
       </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
       <c r="H263">
         <v>450</v>
       </c>
@@ -10025,7 +10458,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12">
       <c r="A264" s="1" t="s">
         <v>228</v>
       </c>
@@ -10060,7 +10493,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12">
       <c r="A265" s="1" t="s">
         <v>229</v>
       </c>
@@ -10095,7 +10528,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12">
       <c r="A266" s="1" t="s">
         <v>230</v>
       </c>
@@ -10114,6 +10547,9 @@
       <c r="F266">
         <v>675</v>
       </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
       <c r="H266">
         <v>675</v>
       </c>
@@ -10124,7 +10560,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12">
       <c r="A267" s="1" t="s">
         <v>231</v>
       </c>
@@ -10143,6 +10579,9 @@
       <c r="F267">
         <v>737.5</v>
       </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
       <c r="H267">
         <v>737.5</v>
       </c>
@@ -10153,7 +10592,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12">
       <c r="A268" s="1" t="s">
         <v>232</v>
       </c>
@@ -10172,6 +10611,9 @@
       <c r="F268">
         <v>590</v>
       </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
       <c r="H268">
         <v>590</v>
       </c>
@@ -10182,7 +10624,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12">
       <c r="A269" s="1" t="s">
         <v>233</v>
       </c>
@@ -10217,7 +10659,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12">
       <c r="A270" s="1" t="s">
         <v>234</v>
       </c>
@@ -10252,7 +10694,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12">
       <c r="A271" s="1" t="s">
         <v>83</v>
       </c>
@@ -10272,7 +10714,7 @@
         <v>1080</v>
       </c>
       <c r="G271">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H271">
         <v>486</v>
@@ -10281,7 +10723,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12">
       <c r="A272" s="1" t="s">
         <v>235</v>
       </c>
@@ -10313,7 +10755,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -10332,6 +10774,9 @@
       <c r="F273">
         <v>1147.5</v>
       </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
       <c r="H273">
         <v>1147.5</v>
       </c>
@@ -10342,7 +10787,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12">
       <c r="A274" s="1" t="s">
         <v>236</v>
       </c>
@@ -10368,7 +10813,7 @@
         <v>2767.5</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12">
       <c r="A275" s="1" t="s">
         <v>237</v>
       </c>
@@ -10387,6 +10832,9 @@
       <c r="F275">
         <v>450</v>
       </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
       <c r="H275">
         <v>450</v>
       </c>
@@ -10397,7 +10845,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12">
       <c r="A276" s="1" t="s">
         <v>238</v>
       </c>
@@ -10416,6 +10864,9 @@
       <c r="F276">
         <v>540</v>
       </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
       <c r="H276">
         <v>540</v>
       </c>
@@ -10426,7 +10877,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12">
       <c r="A277" s="1" t="s">
         <v>239</v>
       </c>
@@ -10445,6 +10896,9 @@
       <c r="F277">
         <v>360</v>
       </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
       <c r="H277">
         <v>360</v>
       </c>
@@ -10455,7 +10909,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12">
       <c r="A278" s="1" t="s">
         <v>240</v>
       </c>
@@ -10474,11 +10928,14 @@
       <c r="F278">
         <v>420</v>
       </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
       <c r="H278">
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12">
       <c r="A279" s="1" t="s">
         <v>241</v>
       </c>
@@ -10513,7 +10970,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12">
       <c r="A280" s="1" t="s">
         <v>242</v>
       </c>
@@ -10532,6 +10989,9 @@
       <c r="F280">
         <v>180</v>
       </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
       <c r="H280">
         <v>180</v>
       </c>
@@ -10542,7 +11002,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12">
       <c r="A281" s="1" t="s">
         <v>36</v>
       </c>
@@ -10561,11 +11021,14 @@
       <c r="F281">
         <v>100</v>
       </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
       <c r="H281">
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
         <v>243</v>
       </c>
@@ -10584,6 +11047,9 @@
       <c r="F282">
         <v>45</v>
       </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
       <c r="H282">
         <v>45</v>
       </c>
@@ -10594,7 +11060,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12">
       <c r="A283" s="1" t="s">
         <v>236</v>
       </c>
@@ -10613,11 +11079,14 @@
       <c r="F283">
         <v>0</v>
       </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
       <c r="H283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12">
       <c r="A284" s="1" t="s">
         <v>244</v>
       </c>
@@ -10636,6 +11105,9 @@
       <c r="F284">
         <v>275</v>
       </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
       <c r="H284">
         <v>275</v>
       </c>
@@ -10646,7 +11118,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12">
       <c r="A285" s="1" t="s">
         <v>245</v>
       </c>
@@ -10665,6 +11137,9 @@
       <c r="F285">
         <v>180</v>
       </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
       <c r="H285">
         <v>180</v>
       </c>
@@ -10675,7 +11150,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12">
       <c r="A286" s="1" t="s">
         <v>246</v>
       </c>
@@ -10707,7 +11182,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12">
       <c r="A287" s="1" t="s">
         <v>247</v>
       </c>
@@ -10726,6 +11201,9 @@
       <c r="F287">
         <v>180</v>
       </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
       <c r="H287">
         <v>180</v>
       </c>
@@ -10736,7 +11214,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12">
       <c r="A288" s="1" t="s">
         <v>148</v>
       </c>
@@ -10768,7 +11246,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12">
       <c r="A289" s="1" t="s">
         <v>75</v>
       </c>
@@ -10787,11 +11265,14 @@
       <c r="F289">
         <v>100</v>
       </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
       <c r="H289">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12">
       <c r="A290" s="1" t="s">
         <v>248</v>
       </c>
@@ -10810,6 +11291,9 @@
       <c r="F290">
         <v>135</v>
       </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
       <c r="H290">
         <v>135</v>
       </c>
@@ -10820,7 +11304,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12">
       <c r="A291" s="1" t="s">
         <v>126</v>
       </c>
@@ -10852,7 +11336,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:12">
       <c r="A292" s="1" t="s">
         <v>32</v>
       </c>
@@ -10887,7 +11371,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:12">
       <c r="A293" s="1" t="s">
         <v>249</v>
       </c>
@@ -10906,6 +11390,9 @@
       <c r="F293">
         <v>150</v>
       </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
       <c r="H293">
         <v>150</v>
       </c>
@@ -10916,7 +11403,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:12">
       <c r="A294" s="1" t="s">
         <v>250</v>
       </c>
@@ -10935,6 +11422,9 @@
       <c r="F294">
         <v>135</v>
       </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
       <c r="H294">
         <v>135</v>
       </c>
@@ -10945,7 +11435,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:12">
       <c r="A295" s="1" t="s">
         <v>39</v>
       </c>
@@ -10980,7 +11470,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:12">
       <c r="A296" s="1" t="s">
         <v>38</v>
       </c>
@@ -11015,7 +11505,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:12">
       <c r="A297" s="1" t="s">
         <v>34</v>
       </c>
@@ -11050,7 +11540,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:12">
       <c r="A298" s="1" t="s">
         <v>141</v>
       </c>
@@ -11069,6 +11559,9 @@
       <c r="F298">
         <v>302.5</v>
       </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
       <c r="H298">
         <v>302.5</v>
       </c>
@@ -11079,7 +11572,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:12">
       <c r="A299" s="1" t="s">
         <v>26</v>
       </c>
@@ -11114,7 +11607,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:12">
       <c r="A300" s="1" t="s">
         <v>128</v>
       </c>
@@ -11133,6 +11626,9 @@
       <c r="F300">
         <v>157.5</v>
       </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
       <c r="H300">
         <v>157.5</v>
       </c>
@@ -11143,7 +11639,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:12">
       <c r="A301" s="1" t="s">
         <v>206</v>
       </c>
@@ -11162,6 +11658,9 @@
       <c r="F301">
         <v>210</v>
       </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
       <c r="H301">
         <v>210</v>
       </c>
@@ -11175,7 +11674,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:12">
       <c r="A302" s="1" t="s">
         <v>251</v>
       </c>
@@ -11194,6 +11693,9 @@
       <c r="F302">
         <v>35</v>
       </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
       <c r="H302">
         <v>35</v>
       </c>
@@ -11204,7 +11706,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:12">
       <c r="A303" s="1" t="s">
         <v>177</v>
       </c>
@@ -11223,6 +11725,9 @@
       <c r="F303">
         <v>140</v>
       </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
       <c r="H303">
         <v>140</v>
       </c>
@@ -11233,7 +11738,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:12">
       <c r="A304" s="1" t="s">
         <v>221</v>
       </c>
@@ -11252,6 +11757,9 @@
       <c r="F304">
         <v>192.5</v>
       </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
       <c r="H304">
         <v>192.5</v>
       </c>
@@ -11265,7 +11773,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:12">
       <c r="A305" s="1" t="s">
         <v>12</v>
       </c>
@@ -11297,7 +11805,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:12">
       <c r="A306" s="1" t="s">
         <v>39</v>
       </c>
@@ -11332,7 +11840,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:12">
       <c r="A307" s="1" t="s">
         <v>46</v>
       </c>
@@ -11367,7 +11875,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:12">
       <c r="A308" s="1" t="s">
         <v>26</v>
       </c>
@@ -11402,7 +11910,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:12">
       <c r="A309" s="1" t="s">
         <v>252</v>
       </c>
@@ -11421,6 +11929,9 @@
       <c r="F309">
         <v>287.5</v>
       </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
       <c r="H309">
         <v>287.5</v>
       </c>
@@ -11431,7 +11942,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:12">
       <c r="A310" s="1" t="s">
         <v>23</v>
       </c>
@@ -11450,11 +11961,14 @@
       <c r="F310">
         <v>690</v>
       </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
       <c r="H310">
         <v>690</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:12">
       <c r="A311" s="1" t="s">
         <v>38</v>
       </c>
@@ -11489,7 +12003,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:12">
       <c r="A312" s="1" t="s">
         <v>78</v>
       </c>
@@ -11524,7 +12038,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:12">
       <c r="A313" s="1" t="s">
         <v>72</v>
       </c>
@@ -11559,7 +12073,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:12">
       <c r="A314" s="1" t="s">
         <v>206</v>
       </c>
@@ -11578,6 +12092,9 @@
       <c r="F314">
         <v>600</v>
       </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
       <c r="H314">
         <v>600</v>
       </c>
@@ -11591,7 +12108,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:12">
       <c r="A315" s="1" t="s">
         <v>20</v>
       </c>
@@ -11626,7 +12143,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:12">
       <c r="A316" s="1" t="s">
         <v>253</v>
       </c>
@@ -11661,7 +12178,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:12">
       <c r="A317" s="1" t="s">
         <v>34</v>
       </c>
@@ -11696,7 +12213,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:12">
       <c r="A318" s="1" t="s">
         <v>135</v>
       </c>
@@ -11715,6 +12232,9 @@
       <c r="F318">
         <v>315</v>
       </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
       <c r="H318">
         <v>267.75</v>
       </c>
@@ -11728,7 +12248,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:12">
       <c r="A319" s="1" t="s">
         <v>236</v>
       </c>
@@ -11747,11 +12267,14 @@
       <c r="F319">
         <v>0</v>
       </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
       <c r="H319">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:12">
       <c r="A320" s="1" t="s">
         <v>254</v>
       </c>
@@ -11770,6 +12293,9 @@
       <c r="F320">
         <v>300</v>
       </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
       <c r="H320">
         <v>300</v>
       </c>
@@ -11780,7 +12306,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:12">
       <c r="A321" s="1" t="s">
         <v>218</v>
       </c>
@@ -11815,7 +12341,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:12">
       <c r="A322" s="1" t="s">
         <v>32</v>
       </c>
@@ -11850,7 +12376,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:12">
       <c r="A323" s="1" t="s">
         <v>255</v>
       </c>
@@ -11885,7 +12411,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:12">
       <c r="A324" s="1" t="s">
         <v>232</v>
       </c>
@@ -11904,6 +12430,9 @@
       <c r="F324">
         <v>75</v>
       </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
       <c r="H324">
         <v>75</v>
       </c>
@@ -11914,8 +12443,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A325" s="2" t="s">
+    <row r="325" spans="1:12">
+      <c r="A325" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -11933,6 +12462,9 @@
       <c r="F325">
         <v>112.5</v>
       </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
       <c r="H325">
         <v>112.5</v>
       </c>
@@ -11943,8 +12475,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="2"/>
+    <row r="326" spans="1:12">
+      <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>484</v>
       </c>
@@ -11960,6 +12492,9 @@
       <c r="F326">
         <v>112.5</v>
       </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
       <c r="H326">
         <v>112.5</v>
       </c>
@@ -11970,8 +12505,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A327" s="2" t="s">
+    <row r="327" spans="1:12">
+      <c r="A327" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -12005,8 +12540,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="2"/>
+    <row r="328" spans="1:12">
+      <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>486</v>
       </c>
@@ -12038,7 +12573,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:12">
       <c r="A329" s="1" t="s">
         <v>67</v>
       </c>
@@ -12070,7 +12605,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:12">
       <c r="A330" s="1" t="s">
         <v>258</v>
       </c>
@@ -12089,6 +12624,9 @@
       <c r="F330">
         <v>142.5</v>
       </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
       <c r="H330">
         <v>142.5</v>
       </c>
@@ -12099,7 +12637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:12">
       <c r="A331" s="1" t="s">
         <v>259</v>
       </c>
@@ -12118,6 +12656,9 @@
       <c r="F331">
         <v>625</v>
       </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
       <c r="H331">
         <v>625</v>
       </c>
@@ -12128,7 +12669,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:12">
       <c r="A332" s="1" t="s">
         <v>260</v>
       </c>
@@ -12147,6 +12688,9 @@
       <c r="F332">
         <v>135</v>
       </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
       <c r="H332">
         <v>135</v>
       </c>
@@ -12157,7 +12701,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:12">
       <c r="A333" s="1" t="s">
         <v>261</v>
       </c>
@@ -12189,7 +12733,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:12">
       <c r="A334" s="1" t="s">
         <v>260</v>
       </c>
@@ -12208,6 +12752,9 @@
       <c r="F334">
         <v>135</v>
       </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
       <c r="H334">
         <v>135</v>
       </c>
@@ -12218,7 +12765,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:12">
       <c r="A335" s="1" t="s">
         <v>75</v>
       </c>
@@ -12244,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:12">
       <c r="A336" s="1" t="s">
         <v>260</v>
       </c>
@@ -12263,6 +12810,9 @@
       <c r="F336">
         <v>135</v>
       </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
       <c r="H336">
         <v>135</v>
       </c>
@@ -12273,7 +12823,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12">
       <c r="A337" s="1" t="s">
         <v>262</v>
       </c>
@@ -12292,6 +12842,9 @@
       <c r="F337">
         <v>1200</v>
       </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
       <c r="H337">
         <v>1200</v>
       </c>
@@ -12302,7 +12855,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12">
       <c r="A338" s="1" t="s">
         <v>263</v>
       </c>
@@ -12321,6 +12874,9 @@
       <c r="F338">
         <v>90</v>
       </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
       <c r="H338">
         <v>90</v>
       </c>
@@ -12331,7 +12887,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12">
       <c r="A339" s="1" t="s">
         <v>264</v>
       </c>
@@ -12350,6 +12906,9 @@
       <c r="F339">
         <v>112.5</v>
       </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
       <c r="H339">
         <v>112.5</v>
       </c>
@@ -12360,7 +12919,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12">
       <c r="A340" s="1" t="s">
         <v>265</v>
       </c>
@@ -12395,7 +12954,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12">
       <c r="A341" s="1" t="s">
         <v>266</v>
       </c>
@@ -12430,7 +12989,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12">
       <c r="A342" s="1" t="s">
         <v>232</v>
       </c>
@@ -12449,6 +13008,9 @@
       <c r="F342">
         <v>285</v>
       </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
       <c r="H342">
         <v>285</v>
       </c>
@@ -12459,7 +13021,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:12">
       <c r="A343" s="1" t="s">
         <v>265</v>
       </c>
@@ -12494,7 +13056,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:12">
       <c r="A344" s="1" t="s">
         <v>267</v>
       </c>
@@ -12529,8 +13091,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="2" t="s">
+    <row r="345" spans="1:12">
+      <c r="A345" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -12548,6 +13110,9 @@
       <c r="F345">
         <v>112.5</v>
       </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
       <c r="H345">
         <v>112.5</v>
       </c>
@@ -12558,8 +13123,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A346" s="2"/>
+    <row r="346" spans="1:12">
+      <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>497</v>
       </c>
@@ -12575,6 +13140,9 @@
       <c r="F346">
         <v>112.5</v>
       </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
       <c r="H346">
         <v>112.5</v>
       </c>
@@ -12585,8 +13153,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A347" s="2"/>
+    <row r="347" spans="1:12">
+      <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>498</v>
       </c>
@@ -12602,6 +13170,9 @@
       <c r="F347">
         <v>112.5</v>
       </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
       <c r="H347">
         <v>112.5</v>
       </c>
@@ -12612,8 +13183,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="2" t="s">
+    <row r="348" spans="1:12">
+      <c r="A348" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -12635,7 +13206,7 @@
         <v>0.2</v>
       </c>
       <c r="H348">
-        <v>515.20000000000005</v>
+        <v>515.2</v>
       </c>
       <c r="I348" t="s">
         <v>537</v>
@@ -12647,8 +13218,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="2"/>
+    <row r="349" spans="1:12">
+      <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>500</v>
       </c>
@@ -12680,7 +13251,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:12">
       <c r="A350" s="1" t="s">
         <v>256</v>
       </c>
@@ -12699,6 +13270,9 @@
       <c r="F350">
         <v>112.5</v>
       </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
       <c r="H350">
         <v>112.5</v>
       </c>
@@ -12709,8 +13283,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A351" s="2" t="s">
+    <row r="351" spans="1:12">
+      <c r="A351" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -12744,8 +13318,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="2"/>
+    <row r="352" spans="1:12">
+      <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>503</v>
       </c>
@@ -12777,7 +13351,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:12">
       <c r="A353" s="1" t="s">
         <v>271</v>
       </c>
@@ -12796,6 +13370,9 @@
       <c r="F353">
         <v>135</v>
       </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
       <c r="H353">
         <v>135</v>
       </c>
@@ -12806,7 +13383,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:12">
       <c r="A354" s="1" t="s">
         <v>268</v>
       </c>
@@ -12825,6 +13402,9 @@
       <c r="F354">
         <v>112.5</v>
       </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
       <c r="H354">
         <v>112.5</v>
       </c>
@@ -12835,8 +13415,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A355" s="2" t="s">
+    <row r="355" spans="1:12">
+      <c r="A355" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -12854,6 +13434,9 @@
       <c r="F355">
         <v>135</v>
       </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
       <c r="H355">
         <v>135</v>
       </c>
@@ -12864,8 +13447,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="2"/>
+    <row r="356" spans="1:12">
+      <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>397</v>
       </c>
@@ -12881,6 +13464,9 @@
       <c r="F356">
         <v>135</v>
       </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
       <c r="H356">
         <v>135</v>
       </c>
@@ -12891,7 +13477,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:12">
       <c r="A357" s="1" t="s">
         <v>20</v>
       </c>
@@ -12926,7 +13512,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:12">
       <c r="A358" s="1" t="s">
         <v>271</v>
       </c>
@@ -12945,6 +13531,9 @@
       <c r="F358">
         <v>135</v>
       </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
       <c r="H358">
         <v>135</v>
       </c>
@@ -12955,7 +13544,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:12">
       <c r="A359" s="1" t="s">
         <v>272</v>
       </c>
@@ -12974,6 +13563,9 @@
       <c r="F359">
         <v>120</v>
       </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
       <c r="H359">
         <v>120</v>
       </c>
@@ -12984,7 +13576,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:12">
       <c r="A360" s="1" t="s">
         <v>273</v>
       </c>
@@ -13003,6 +13595,9 @@
       <c r="F360">
         <v>210</v>
       </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
       <c r="H360">
         <v>210</v>
       </c>
@@ -13013,7 +13608,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:12">
       <c r="A361" s="1" t="s">
         <v>63</v>
       </c>
@@ -13032,6 +13627,9 @@
       <c r="F361">
         <v>300</v>
       </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
       <c r="H361">
         <v>300</v>
       </c>
@@ -13045,7 +13643,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:12">
       <c r="A362" s="1" t="s">
         <v>274</v>
       </c>
@@ -13064,6 +13662,9 @@
       <c r="F362">
         <v>172.5</v>
       </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
       <c r="H362">
         <v>172.5</v>
       </c>
@@ -13074,7 +13675,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:12">
       <c r="A363" s="1" t="s">
         <v>23</v>
       </c>
@@ -13093,11 +13694,14 @@
       <c r="F363">
         <v>510</v>
       </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
       <c r="H363">
         <v>510</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:12">
       <c r="A364" s="1" t="s">
         <v>275</v>
       </c>
@@ -13116,6 +13720,9 @@
       <c r="F364">
         <v>120</v>
       </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
       <c r="H364">
         <v>120</v>
       </c>
@@ -13126,7 +13733,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:12">
       <c r="A365" s="1" t="s">
         <v>24</v>
       </c>
@@ -13161,7 +13768,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:12">
       <c r="A366" s="1" t="s">
         <v>250</v>
       </c>
@@ -13180,6 +13787,9 @@
       <c r="F366">
         <v>212.5</v>
       </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
       <c r="H366">
         <v>212.5</v>
       </c>
@@ -13190,7 +13800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:12">
       <c r="A367" s="1" t="s">
         <v>276</v>
       </c>
@@ -13222,7 +13832,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:12">
       <c r="A368" s="1" t="s">
         <v>277</v>
       </c>
@@ -13241,6 +13851,9 @@
       <c r="F368">
         <v>120</v>
       </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
       <c r="H368">
         <v>120</v>
       </c>
@@ -13251,7 +13864,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:12">
       <c r="A369" s="1" t="s">
         <v>278</v>
       </c>
@@ -13270,6 +13883,9 @@
       <c r="F369">
         <v>315</v>
       </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
       <c r="H369">
         <v>315</v>
       </c>
@@ -13280,7 +13896,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:12">
       <c r="A370" s="1" t="s">
         <v>279</v>
       </c>
@@ -13299,6 +13915,9 @@
       <c r="F370">
         <v>115</v>
       </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
       <c r="H370">
         <v>115</v>
       </c>
@@ -13309,7 +13928,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:12">
       <c r="A371" s="1" t="s">
         <v>46</v>
       </c>
@@ -13344,7 +13963,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:12">
       <c r="A372" s="1" t="s">
         <v>132</v>
       </c>
@@ -13363,6 +13982,9 @@
       <c r="F372">
         <v>60</v>
       </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
       <c r="H372">
         <v>60</v>
       </c>
@@ -13373,7 +13995,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:12">
       <c r="A373" s="1" t="s">
         <v>280</v>
       </c>
@@ -13392,6 +14014,9 @@
       <c r="F373">
         <v>90</v>
       </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
       <c r="H373">
         <v>90</v>
       </c>
@@ -13402,7 +14027,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:12">
       <c r="A374" s="1" t="s">
         <v>281</v>
       </c>
@@ -13421,6 +14046,9 @@
       <c r="F374">
         <v>390</v>
       </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
       <c r="H374">
         <v>390</v>
       </c>
@@ -13431,7 +14059,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:12">
       <c r="A375" s="1" t="s">
         <v>282</v>
       </c>
@@ -13450,6 +14078,9 @@
       <c r="F375">
         <v>120</v>
       </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
       <c r="H375">
         <v>120</v>
       </c>
@@ -13460,7 +14091,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:12">
       <c r="A376" s="1" t="s">
         <v>283</v>
       </c>
@@ -13479,6 +14110,9 @@
       <c r="F376">
         <v>287.5</v>
       </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
       <c r="H376">
         <v>115</v>
       </c>
@@ -13489,7 +14123,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:12">
       <c r="A377" s="1" t="s">
         <v>247</v>
       </c>
@@ -13508,6 +14142,9 @@
       <c r="F377">
         <v>212.5</v>
       </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
       <c r="H377">
         <v>212.5</v>
       </c>
@@ -13518,7 +14155,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:12">
       <c r="A378" s="1" t="s">
         <v>284</v>
       </c>
@@ -13537,6 +14174,9 @@
       <c r="F378">
         <v>210</v>
       </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
       <c r="H378">
         <v>210</v>
       </c>
@@ -13547,7 +14187,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:12">
       <c r="A379" s="1" t="s">
         <v>73</v>
       </c>
@@ -13566,6 +14206,9 @@
       <c r="F379">
         <v>425</v>
       </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
       <c r="H379">
         <v>425</v>
       </c>
@@ -13573,7 +14216,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:12">
       <c r="A380" s="1" t="s">
         <v>171</v>
       </c>
@@ -13608,7 +14251,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:12">
       <c r="A381" s="1" t="s">
         <v>285</v>
       </c>
@@ -13627,6 +14270,9 @@
       <c r="F381">
         <v>172.5</v>
       </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
       <c r="H381">
         <v>172.5</v>
       </c>
@@ -13637,7 +14283,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:12">
       <c r="A382" s="1" t="s">
         <v>75</v>
       </c>
@@ -13656,11 +14302,14 @@
       <c r="F382">
         <v>240</v>
       </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
       <c r="H382">
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:12">
       <c r="A383" s="1" t="s">
         <v>286</v>
       </c>
@@ -13679,6 +14328,9 @@
       <c r="F383">
         <v>170</v>
       </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
       <c r="H383">
         <v>170</v>
       </c>
@@ -13689,7 +14341,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:12">
       <c r="A384" s="1" t="s">
         <v>284</v>
       </c>
@@ -13708,6 +14360,9 @@
       <c r="F384">
         <v>210</v>
       </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
       <c r="H384">
         <v>210</v>
       </c>
@@ -13718,7 +14373,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:12">
       <c r="A385" s="1" t="s">
         <v>251</v>
       </c>
@@ -13737,6 +14392,9 @@
       <c r="F385">
         <v>270</v>
       </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
       <c r="H385">
         <v>270</v>
       </c>
@@ -13747,7 +14405,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:12">
       <c r="A386" s="1" t="s">
         <v>78</v>
       </c>
@@ -13782,7 +14440,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:12">
       <c r="A387" s="1" t="s">
         <v>284</v>
       </c>
@@ -13801,6 +14459,9 @@
       <c r="F387">
         <v>210</v>
       </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
       <c r="H387">
         <v>210</v>
       </c>
@@ -13811,7 +14472,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:12">
       <c r="A388" s="1" t="s">
         <v>93</v>
       </c>
@@ -13846,7 +14507,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:12">
       <c r="A389" s="1" t="s">
         <v>287</v>
       </c>
@@ -13865,6 +14526,9 @@
       <c r="F389">
         <v>287.5</v>
       </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
       <c r="H389">
         <v>0</v>
       </c>
@@ -13878,7 +14542,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:12">
       <c r="A390" s="1" t="s">
         <v>288</v>
       </c>
@@ -13913,7 +14577,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:12">
       <c r="A391" s="1" t="s">
         <v>284</v>
       </c>
@@ -13932,6 +14596,9 @@
       <c r="F391">
         <v>210</v>
       </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
       <c r="H391">
         <v>210</v>
       </c>
@@ -13942,7 +14609,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:12">
       <c r="A392" s="1" t="s">
         <v>260</v>
       </c>
@@ -13961,6 +14628,9 @@
       <c r="F392">
         <v>135</v>
       </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
       <c r="H392">
         <v>135</v>
       </c>
@@ -13971,7 +14641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:12">
       <c r="A393" s="1" t="s">
         <v>289</v>
       </c>
@@ -13990,11 +14660,14 @@
       <c r="F393">
         <v>380</v>
       </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
       <c r="H393">
         <v>380</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:12">
       <c r="A394" s="1" t="s">
         <v>290</v>
       </c>
@@ -14013,6 +14686,9 @@
       <c r="F394">
         <v>120</v>
       </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
       <c r="H394">
         <v>120</v>
       </c>
@@ -14026,7 +14702,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:12">
       <c r="A395" s="1" t="s">
         <v>26</v>
       </c>
@@ -14061,7 +14737,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:12">
       <c r="A396" s="1" t="s">
         <v>67</v>
       </c>
@@ -14093,7 +14769,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:12">
       <c r="A397" s="1" t="s">
         <v>291</v>
       </c>
@@ -14112,6 +14788,9 @@
       <c r="F397">
         <v>360</v>
       </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
       <c r="H397">
         <v>360</v>
       </c>
@@ -14125,7 +14804,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:12">
       <c r="A398" s="1" t="s">
         <v>38</v>
       </c>
@@ -14160,7 +14839,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:12">
       <c r="A399" s="1" t="s">
         <v>284</v>
       </c>
@@ -14179,6 +14858,9 @@
       <c r="F399">
         <v>210</v>
       </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
       <c r="H399">
         <v>210</v>
       </c>
@@ -14189,7 +14871,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:12">
       <c r="A400" s="1" t="s">
         <v>292</v>
       </c>
@@ -14224,7 +14906,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:12">
       <c r="A401" s="1" t="s">
         <v>293</v>
       </c>
@@ -14256,7 +14938,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:12">
       <c r="A402" s="1" t="s">
         <v>236</v>
       </c>
@@ -14282,7 +14964,7 @@
         <v>573.75</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:12">
       <c r="A403" s="1" t="s">
         <v>36</v>
       </c>
@@ -14301,11 +14983,14 @@
       <c r="F403">
         <v>240</v>
       </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
       <c r="H403">
         <v>240</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:12">
       <c r="A404" s="1" t="s">
         <v>32</v>
       </c>
@@ -14340,7 +15025,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:12">
       <c r="A405" s="1" t="s">
         <v>42</v>
       </c>
@@ -14372,7 +15057,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:12">
       <c r="A406" s="1" t="s">
         <v>294</v>
       </c>
@@ -14391,6 +15076,9 @@
       <c r="F406">
         <v>725</v>
       </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
       <c r="H406">
         <v>725</v>
       </c>
@@ -14401,7 +15089,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:12">
       <c r="A407" s="1" t="s">
         <v>242</v>
       </c>
@@ -14420,6 +15108,9 @@
       <c r="F407">
         <v>212.5</v>
       </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
       <c r="H407">
         <v>212.5</v>
       </c>
@@ -14430,7 +15121,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:12">
       <c r="A408" s="1" t="s">
         <v>295</v>
       </c>
@@ -14449,6 +15140,9 @@
       <c r="F408">
         <v>120</v>
       </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
       <c r="H408">
         <v>120</v>
       </c>
@@ -14459,7 +15153,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:12">
       <c r="A409" s="1" t="s">
         <v>296</v>
       </c>
@@ -14478,6 +15172,9 @@
       <c r="F409">
         <v>90</v>
       </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
       <c r="H409">
         <v>90</v>
       </c>
@@ -14488,7 +15185,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:12">
       <c r="A410" s="1" t="s">
         <v>297</v>
       </c>
@@ -14523,7 +15220,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:12">
       <c r="A411" s="1" t="s">
         <v>298</v>
       </c>
@@ -14558,7 +15255,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:12">
       <c r="A412" s="1" t="s">
         <v>72</v>
       </c>
@@ -14593,7 +15290,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:12">
       <c r="A413" s="1" t="s">
         <v>299</v>
       </c>
@@ -14612,6 +15309,9 @@
       <c r="F413">
         <v>345</v>
       </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
       <c r="H413">
         <v>345</v>
       </c>
@@ -14622,7 +15322,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:12">
       <c r="A414" s="1" t="s">
         <v>135</v>
       </c>
@@ -14641,6 +15341,9 @@
       <c r="F414">
         <v>180</v>
       </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
       <c r="H414">
         <v>153</v>
       </c>
@@ -14654,7 +15357,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:12">
       <c r="A415" s="1" t="s">
         <v>300</v>
       </c>
@@ -14673,6 +15376,9 @@
       <c r="F415">
         <v>160</v>
       </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
       <c r="H415">
         <v>160</v>
       </c>
@@ -14683,7 +15389,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:12">
       <c r="A416" s="1" t="s">
         <v>301</v>
       </c>
@@ -14718,7 +15424,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:12">
       <c r="A417" s="1" t="s">
         <v>302</v>
       </c>
@@ -14753,7 +15459,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:12">
       <c r="A418" s="1" t="s">
         <v>251</v>
       </c>
@@ -14766,6 +15472,9 @@
       <c r="D418">
         <v>855</v>
       </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
       <c r="H418">
         <v>0</v>
       </c>
@@ -14776,7 +15485,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:12">
       <c r="A419" s="1" t="s">
         <v>303</v>
       </c>
@@ -14795,6 +15504,9 @@
       <c r="F419">
         <v>80</v>
       </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
       <c r="H419">
         <v>560</v>
       </c>
@@ -14805,7 +15517,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:12">
       <c r="A420" s="1" t="s">
         <v>20</v>
       </c>
@@ -14840,7 +15552,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:12">
       <c r="A421" s="1" t="s">
         <v>304</v>
       </c>
@@ -14859,6 +15571,9 @@
       <c r="F421">
         <v>162.5</v>
       </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
       <c r="H421">
         <v>162.5</v>
       </c>
@@ -14869,7 +15584,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:12">
       <c r="A422" s="1" t="s">
         <v>50</v>
       </c>
@@ -14901,7 +15616,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:12">
       <c r="A423" s="1" t="s">
         <v>221</v>
       </c>
@@ -14936,7 +15651,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:12">
       <c r="A424" s="1" t="s">
         <v>206</v>
       </c>
@@ -14973,12 +15688,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A355:A356"/>
     <mergeCell ref="A325:A326"/>
     <mergeCell ref="A327:A328"/>
     <mergeCell ref="A345:A347"/>
     <mergeCell ref="A348:A349"/>
     <mergeCell ref="A351:A352"/>
+    <mergeCell ref="A355:A356"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/invoice_data.xlsx
+++ b/invoice_data.xlsx
@@ -43,15 +43,15 @@
     <t>membership</t>
   </si>
   <si>
-    <t>day-type</t>
+    <t>discount_type</t>
+  </si>
+  <si>
+    <t>day_type</t>
   </si>
   <si>
     <t>duration</t>
   </si>
   <si>
-    <t>discount</t>
-  </si>
-  <si>
     <t>615002-2 IHO Whole Person</t>
   </si>
   <si>
@@ -1624,6 +1624,30 @@
     <t>org-connect</t>
   </si>
   <si>
+    <t>founder</t>
+  </si>
+  <si>
+    <t>multi-day</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>multi-room</t>
+  </si>
+  <si>
+    <t>sponsorship</t>
+  </si>
+  <si>
+    <t>returning-client</t>
+  </si>
+  <si>
+    <t>reoccuring</t>
+  </si>
+  <si>
+    <t>multi-event</t>
+  </si>
+  <si>
     <t>weekend</t>
   </si>
   <si>
@@ -1634,30 +1658,6 @@
   </si>
   <si>
     <t>half-day</t>
-  </si>
-  <si>
-    <t>founder</t>
-  </si>
-  <si>
-    <t>multi-day</t>
-  </si>
-  <si>
-    <t>partnership</t>
-  </si>
-  <si>
-    <t>multi-room</t>
-  </si>
-  <si>
-    <t>sponsorship</t>
-  </si>
-  <si>
-    <t>returning-client</t>
-  </si>
-  <si>
-    <t>Reoccuring</t>
-  </si>
-  <si>
-    <t>multi-event</t>
   </si>
 </sst>
 </file>
@@ -2090,8 +2090,8 @@
       <c r="J2" t="s">
         <v>536</v>
       </c>
-      <c r="L2" t="s">
-        <v>540</v>
+      <c r="K2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2123,10 +2123,10 @@
         <v>533</v>
       </c>
       <c r="J3" t="s">
-        <v>536</v>
-      </c>
-      <c r="L3" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="K3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2157,8 +2157,8 @@
       <c r="I4" t="s">
         <v>532</v>
       </c>
-      <c r="J4" t="s">
-        <v>537</v>
+      <c r="K4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2189,8 +2189,8 @@
       <c r="I5" t="s">
         <v>532</v>
       </c>
-      <c r="J5" t="s">
-        <v>537</v>
+      <c r="K5" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2222,10 +2222,10 @@
         <v>534</v>
       </c>
       <c r="J6" t="s">
-        <v>536</v>
-      </c>
-      <c r="L6" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K6" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2257,10 +2257,10 @@
         <v>534</v>
       </c>
       <c r="J7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L7" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2292,10 +2292,10 @@
         <v>532</v>
       </c>
       <c r="J8" t="s">
-        <v>537</v>
-      </c>
-      <c r="L8" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K8" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2326,8 +2326,8 @@
       <c r="I9" t="s">
         <v>532</v>
       </c>
-      <c r="J9" t="s">
-        <v>537</v>
+      <c r="K9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2358,8 +2358,8 @@
       <c r="I10" t="s">
         <v>534</v>
       </c>
-      <c r="J10" t="s">
-        <v>536</v>
+      <c r="K10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2390,8 +2390,8 @@
       <c r="I11" t="s">
         <v>532</v>
       </c>
-      <c r="J11" t="s">
-        <v>537</v>
+      <c r="K11" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2423,10 +2423,10 @@
         <v>534</v>
       </c>
       <c r="J12" t="s">
-        <v>537</v>
-      </c>
-      <c r="L12" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K12" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2457,8 +2457,8 @@
       <c r="I13" t="s">
         <v>533</v>
       </c>
-      <c r="J13" t="s">
-        <v>537</v>
+      <c r="K13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2489,8 +2489,8 @@
       <c r="I14" t="s">
         <v>532</v>
       </c>
-      <c r="J14" t="s">
-        <v>537</v>
+      <c r="K14" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2521,8 +2521,8 @@
       <c r="I15" t="s">
         <v>533</v>
       </c>
-      <c r="J15" t="s">
-        <v>537</v>
+      <c r="K15" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2553,11 +2553,11 @@
       <c r="I16" t="s">
         <v>534</v>
       </c>
-      <c r="J16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2586,13 +2586,13 @@
         <v>533</v>
       </c>
       <c r="J17" t="s">
-        <v>537</v>
-      </c>
-      <c r="L17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2675,11 +2675,11 @@
       <c r="J20" t="s">
         <v>536</v>
       </c>
-      <c r="L20" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2734,13 +2734,13 @@
         <v>533</v>
       </c>
       <c r="J22" t="s">
-        <v>537</v>
-      </c>
-      <c r="L22" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>393.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2820,11 +2820,11 @@
       <c r="I25" t="s">
         <v>532</v>
       </c>
-      <c r="J25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2853,13 +2853,13 @@
         <v>533</v>
       </c>
       <c r="J26" t="s">
-        <v>537</v>
-      </c>
-      <c r="L26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2887,11 +2887,11 @@
       <c r="I27" t="s">
         <v>532</v>
       </c>
-      <c r="J27" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2917,13 +2917,13 @@
         <v>497.25</v>
       </c>
       <c r="J28" t="s">
-        <v>537</v>
-      </c>
-      <c r="L28" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2951,11 +2951,11 @@
       <c r="I29" t="s">
         <v>534</v>
       </c>
-      <c r="J29" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3010,13 +3010,13 @@
         <v>533</v>
       </c>
       <c r="J31" t="s">
-        <v>536</v>
-      </c>
-      <c r="L31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3045,13 +3045,13 @@
         <v>534</v>
       </c>
       <c r="J32" t="s">
-        <v>537</v>
-      </c>
-      <c r="L32" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3106,13 +3106,13 @@
         <v>534</v>
       </c>
       <c r="J34" t="s">
-        <v>537</v>
-      </c>
-      <c r="L34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3166,11 +3166,11 @@
       <c r="I36" t="s">
         <v>533</v>
       </c>
-      <c r="J36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="K36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3198,11 +3198,11 @@
       <c r="I37" t="s">
         <v>532</v>
       </c>
-      <c r="J37" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="K37" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3231,13 +3231,13 @@
         <v>533</v>
       </c>
       <c r="J38" t="s">
-        <v>537</v>
-      </c>
-      <c r="L38" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3265,11 +3265,11 @@
       <c r="I39" t="s">
         <v>532</v>
       </c>
-      <c r="J39" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3297,11 +3297,11 @@
       <c r="I40" t="s">
         <v>533</v>
       </c>
-      <c r="J40" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3330,13 +3330,13 @@
         <v>534</v>
       </c>
       <c r="J41" t="s">
-        <v>537</v>
-      </c>
-      <c r="L41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3365,13 +3365,13 @@
         <v>534</v>
       </c>
       <c r="J42" t="s">
-        <v>537</v>
-      </c>
-      <c r="L42" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3399,11 +3399,11 @@
       <c r="I43" t="s">
         <v>534</v>
       </c>
-      <c r="J43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3431,11 +3431,11 @@
       <c r="I44" t="s">
         <v>534</v>
       </c>
-      <c r="J44" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3463,11 +3463,11 @@
       <c r="I45" t="s">
         <v>534</v>
       </c>
-      <c r="J45" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="K45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3495,11 +3495,11 @@
       <c r="I46" t="s">
         <v>533</v>
       </c>
-      <c r="J46" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="K46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3527,11 +3527,11 @@
       <c r="I47" t="s">
         <v>533</v>
       </c>
-      <c r="J47" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3559,8 @@
       <c r="I48" t="s">
         <v>533</v>
       </c>
-      <c r="J48" t="s">
-        <v>536</v>
+      <c r="K48" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3591,8 +3591,8 @@
       <c r="I49" t="s">
         <v>532</v>
       </c>
-      <c r="J49" t="s">
-        <v>536</v>
+      <c r="K49" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>533</v>
       </c>
       <c r="J52" t="s">
-        <v>536</v>
-      </c>
-      <c r="L52" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K52" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3710,8 +3710,8 @@
       <c r="I53" t="s">
         <v>533</v>
       </c>
-      <c r="J53" t="s">
-        <v>537</v>
+      <c r="K53" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3742,8 +3742,8 @@
       <c r="I54" t="s">
         <v>533</v>
       </c>
-      <c r="J54" t="s">
-        <v>537</v>
+      <c r="K54" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3801,10 +3801,10 @@
         <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>537</v>
-      </c>
-      <c r="L56" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K56" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3836,10 +3836,10 @@
         <v>532</v>
       </c>
       <c r="J57" t="s">
-        <v>536</v>
-      </c>
-      <c r="L57" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K57" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3871,10 +3871,10 @@
         <v>533</v>
       </c>
       <c r="J58" t="s">
-        <v>537</v>
-      </c>
-      <c r="L58" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K58" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3934,8 +3934,8 @@
       <c r="I60" t="s">
         <v>533</v>
       </c>
-      <c r="J60" t="s">
-        <v>536</v>
+      <c r="K60" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3967,10 +3967,10 @@
         <v>534</v>
       </c>
       <c r="J61" t="s">
-        <v>536</v>
-      </c>
-      <c r="L61" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K61" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4002,9 +4002,9 @@
         <v>532</v>
       </c>
       <c r="J62" t="s">
-        <v>536</v>
-      </c>
-      <c r="L62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
         <v>544</v>
       </c>
     </row>
@@ -4036,11 +4036,11 @@
       <c r="I63" t="s">
         <v>534</v>
       </c>
-      <c r="K63" t="s">
-        <v>538</v>
+      <c r="J63" t="s">
+        <v>536</v>
       </c>
       <c r="L63" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4100,8 +4100,8 @@
       <c r="I65" t="s">
         <v>533</v>
       </c>
-      <c r="J65" t="s">
-        <v>536</v>
+      <c r="K65" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4133,10 +4133,10 @@
         <v>534</v>
       </c>
       <c r="J66" t="s">
-        <v>536</v>
-      </c>
-      <c r="L66" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4167,8 +4167,8 @@
       <c r="I67" t="s">
         <v>533</v>
       </c>
-      <c r="J67" t="s">
-        <v>536</v>
+      <c r="K67" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4225,8 +4225,8 @@
       <c r="I69" t="s">
         <v>534</v>
       </c>
-      <c r="J69" t="s">
-        <v>536</v>
+      <c r="K69" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4289,8 +4289,8 @@
       <c r="J71" t="s">
         <v>536</v>
       </c>
-      <c r="L71" t="s">
-        <v>540</v>
+      <c r="K71" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4321,11 +4321,11 @@
       <c r="I72" t="s">
         <v>534</v>
       </c>
-      <c r="J72" t="s">
-        <v>536</v>
-      </c>
       <c r="K72" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L72" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4357,10 +4357,10 @@
         <v>533</v>
       </c>
       <c r="J73" t="s">
-        <v>536</v>
-      </c>
-      <c r="L73" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="K73" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4391,8 +4391,8 @@
       <c r="I74" t="s">
         <v>532</v>
       </c>
-      <c r="J74" t="s">
-        <v>536</v>
+      <c r="K74" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4424,10 +4424,10 @@
         <v>532</v>
       </c>
       <c r="J75" t="s">
-        <v>537</v>
-      </c>
-      <c r="L75" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K75" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4458,8 +4458,8 @@
       <c r="I76" t="s">
         <v>534</v>
       </c>
-      <c r="J76" t="s">
-        <v>537</v>
+      <c r="K76" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4490,8 +4490,8 @@
       <c r="I77" t="s">
         <v>533</v>
       </c>
-      <c r="J77" t="s">
-        <v>537</v>
+      <c r="K77" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4523,10 +4523,10 @@
         <v>532</v>
       </c>
       <c r="J78" t="s">
-        <v>537</v>
-      </c>
-      <c r="L78" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4558,10 +4558,10 @@
         <v>532</v>
       </c>
       <c r="J79" t="s">
-        <v>537</v>
-      </c>
-      <c r="L79" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K79" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4592,11 +4592,11 @@
       <c r="I80" t="s">
         <v>534</v>
       </c>
-      <c r="J80" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="K80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -4624,11 +4624,11 @@
       <c r="I81" t="s">
         <v>534</v>
       </c>
-      <c r="J81" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="K81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4656,11 +4656,11 @@
       <c r="I82" t="s">
         <v>532</v>
       </c>
-      <c r="J82" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="K82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -4688,11 +4688,11 @@
       <c r="I83" t="s">
         <v>532</v>
       </c>
-      <c r="J83" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="K83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -4746,11 +4746,11 @@
       <c r="I85" t="s">
         <v>534</v>
       </c>
-      <c r="J85" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="K85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -4778,11 +4778,11 @@
       <c r="I86" t="s">
         <v>533</v>
       </c>
-      <c r="J86" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="K86" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -4810,11 +4810,11 @@
       <c r="I87" t="s">
         <v>533</v>
       </c>
-      <c r="J87" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="K87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -4843,13 +4843,13 @@
         <v>532</v>
       </c>
       <c r="J88" t="s">
-        <v>537</v>
-      </c>
-      <c r="L88" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K88" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -4877,11 +4877,11 @@
       <c r="I89" t="s">
         <v>534</v>
       </c>
-      <c r="J89" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="K89" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -4935,11 +4935,11 @@
       <c r="I91" t="s">
         <v>534</v>
       </c>
-      <c r="J91" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="K91" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -4994,13 +4994,13 @@
         <v>534</v>
       </c>
       <c r="J93" t="s">
-        <v>537</v>
-      </c>
-      <c r="L93" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>541</v>
+      </c>
+      <c r="K93" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -5028,11 +5028,11 @@
       <c r="I94" t="s">
         <v>533</v>
       </c>
-      <c r="J94" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="K94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5060,11 +5060,11 @@
       <c r="I95" t="s">
         <v>534</v>
       </c>
-      <c r="J95" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="K95" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -5092,11 +5092,11 @@
       <c r="I96" t="s">
         <v>533</v>
       </c>
-      <c r="J96" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="K96" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5150,11 +5150,11 @@
       <c r="I98" t="s">
         <v>534</v>
       </c>
-      <c r="J98" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="K98" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -5208,11 +5208,11 @@
       <c r="I100" t="s">
         <v>533</v>
       </c>
-      <c r="J100" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="K100" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -5240,11 +5240,11 @@
       <c r="I101" t="s">
         <v>534</v>
       </c>
-      <c r="J101" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="K101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -5273,13 +5273,13 @@
         <v>534</v>
       </c>
       <c r="J102" t="s">
-        <v>537</v>
-      </c>
-      <c r="L102" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K102" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -5307,11 +5307,11 @@
       <c r="I103" t="s">
         <v>532</v>
       </c>
-      <c r="J103" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="K103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -5339,11 +5339,11 @@
       <c r="I104" t="s">
         <v>533</v>
       </c>
-      <c r="J104" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="K104" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -5372,13 +5372,13 @@
         <v>534</v>
       </c>
       <c r="J105" t="s">
-        <v>537</v>
-      </c>
-      <c r="L105" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K105" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -5407,13 +5407,13 @@
         <v>534</v>
       </c>
       <c r="J106" t="s">
-        <v>537</v>
-      </c>
-      <c r="L106" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K106" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -5442,13 +5442,13 @@
         <v>534</v>
       </c>
       <c r="J107" t="s">
-        <v>537</v>
-      </c>
-      <c r="L107" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K107" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -5476,11 +5476,11 @@
       <c r="I108" t="s">
         <v>532</v>
       </c>
-      <c r="J108" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="K108" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -5508,11 +5508,11 @@
       <c r="I109" t="s">
         <v>533</v>
       </c>
-      <c r="J109" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="K109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -5540,11 +5540,11 @@
       <c r="I110" t="s">
         <v>533</v>
       </c>
-      <c r="J110" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="K110" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -5598,8 +5598,8 @@
       <c r="I112" t="s">
         <v>533</v>
       </c>
-      <c r="J112" t="s">
-        <v>537</v>
+      <c r="K112" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5630,8 +5630,8 @@
       <c r="I113" t="s">
         <v>532</v>
       </c>
-      <c r="J113" t="s">
-        <v>537</v>
+      <c r="K113" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5662,8 +5662,8 @@
       <c r="I114" t="s">
         <v>532</v>
       </c>
-      <c r="J114" t="s">
-        <v>536</v>
+      <c r="K114" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5694,8 +5694,8 @@
       <c r="I115" t="s">
         <v>534</v>
       </c>
-      <c r="J115" t="s">
-        <v>537</v>
+      <c r="K115" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5726,8 +5726,8 @@
       <c r="I116" t="s">
         <v>533</v>
       </c>
-      <c r="J116" t="s">
-        <v>537</v>
+      <c r="K116" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5759,10 +5759,10 @@
         <v>532</v>
       </c>
       <c r="J117" t="s">
-        <v>537</v>
-      </c>
-      <c r="L117" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K117" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5794,10 +5794,10 @@
         <v>533</v>
       </c>
       <c r="J118" t="s">
-        <v>537</v>
-      </c>
-      <c r="L118" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K118" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5829,13 +5829,13 @@
         <v>533</v>
       </c>
       <c r="J119" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K119" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="L119" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5866,8 +5866,8 @@
       <c r="I120" t="s">
         <v>532</v>
       </c>
-      <c r="J120" t="s">
-        <v>536</v>
+      <c r="K120" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5924,8 +5924,8 @@
       <c r="I122" t="s">
         <v>533</v>
       </c>
-      <c r="J122" t="s">
-        <v>537</v>
+      <c r="K122" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6014,8 +6014,8 @@
       <c r="I125" t="s">
         <v>534</v>
       </c>
-      <c r="J125" t="s">
-        <v>537</v>
+      <c r="K125" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6047,10 +6047,10 @@
         <v>534</v>
       </c>
       <c r="J126" t="s">
-        <v>537</v>
-      </c>
-      <c r="L126" t="s">
-        <v>540</v>
+        <v>536</v>
+      </c>
+      <c r="K126" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6081,8 +6081,8 @@
       <c r="I127" t="s">
         <v>534</v>
       </c>
-      <c r="J127" t="s">
-        <v>537</v>
+      <c r="K127" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6111,7 +6111,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -6140,13 +6140,13 @@
         <v>533</v>
       </c>
       <c r="J129" t="s">
-        <v>537</v>
-      </c>
-      <c r="L129" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6174,11 +6174,11 @@
       <c r="I130" t="s">
         <v>534</v>
       </c>
-      <c r="J130" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="K130" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6206,11 +6206,11 @@
       <c r="I131" t="s">
         <v>532</v>
       </c>
-      <c r="J131" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="K131" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6238,11 +6238,11 @@
       <c r="I132" t="s">
         <v>534</v>
       </c>
-      <c r="J132" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="K132" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6271,13 +6271,13 @@
         <v>532</v>
       </c>
       <c r="J133" t="s">
-        <v>537</v>
-      </c>
-      <c r="L133" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K133" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6305,11 +6305,11 @@
       <c r="I134" t="s">
         <v>534</v>
       </c>
-      <c r="J134" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="K134" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6338,13 +6338,13 @@
         <v>534</v>
       </c>
       <c r="J135" t="s">
-        <v>537</v>
-      </c>
-      <c r="L135" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>540</v>
+      </c>
+      <c r="K135" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6372,11 +6372,11 @@
       <c r="I136" t="s">
         <v>533</v>
       </c>
-      <c r="J136" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="K136" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6404,11 +6404,11 @@
       <c r="I137" t="s">
         <v>534</v>
       </c>
-      <c r="J137" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="K137" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6436,11 +6436,11 @@
       <c r="I138" t="s">
         <v>532</v>
       </c>
-      <c r="J138" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="K138" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6468,11 +6468,11 @@
       <c r="I139" t="s">
         <v>534</v>
       </c>
-      <c r="J139" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="K139" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6500,11 +6500,11 @@
       <c r="I140" t="s">
         <v>532</v>
       </c>
-      <c r="J140" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="K140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -6533,13 +6533,13 @@
         <v>533</v>
       </c>
       <c r="J141" t="s">
-        <v>537</v>
-      </c>
-      <c r="L141" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -6567,11 +6567,11 @@
       <c r="I142" t="s">
         <v>532</v>
       </c>
-      <c r="J142" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="K142" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -6600,13 +6600,13 @@
         <v>534</v>
       </c>
       <c r="J143" t="s">
-        <v>537</v>
-      </c>
-      <c r="L143" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>540</v>
+      </c>
+      <c r="K143" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -6635,13 +6635,13 @@
         <v>534</v>
       </c>
       <c r="J144" t="s">
-        <v>536</v>
-      </c>
-      <c r="L144" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>542</v>
+      </c>
+      <c r="K144" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -6670,13 +6670,13 @@
         <v>534</v>
       </c>
       <c r="J145" t="s">
-        <v>537</v>
-      </c>
-      <c r="L145" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>540</v>
+      </c>
+      <c r="K145" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -6704,11 +6704,11 @@
       <c r="I146" t="s">
         <v>534</v>
       </c>
-      <c r="J146" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="K146" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -6736,11 +6736,11 @@
       <c r="I147" t="s">
         <v>534</v>
       </c>
-      <c r="J147" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="K147" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -6768,11 +6768,11 @@
       <c r="I148" t="s">
         <v>534</v>
       </c>
-      <c r="J148" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="K148" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -6800,11 +6800,11 @@
       <c r="I149" t="s">
         <v>533</v>
       </c>
-      <c r="J149" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="K149" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>40</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -6858,11 +6858,11 @@
       <c r="I151" t="s">
         <v>534</v>
       </c>
-      <c r="J151" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="K151" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -6891,13 +6891,13 @@
         <v>534</v>
       </c>
       <c r="J152" t="s">
-        <v>537</v>
-      </c>
-      <c r="L152" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K152" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -6928,11 +6928,11 @@
       <c r="J153" t="s">
         <v>536</v>
       </c>
-      <c r="L153" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="K153" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -6961,13 +6961,13 @@
         <v>534</v>
       </c>
       <c r="J154" t="s">
-        <v>537</v>
-      </c>
-      <c r="L154" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>540</v>
+      </c>
+      <c r="K154" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -6996,13 +6996,13 @@
         <v>533</v>
       </c>
       <c r="J155" t="s">
-        <v>536</v>
-      </c>
-      <c r="L155" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K155" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -7030,11 +7030,11 @@
       <c r="I156" t="s">
         <v>532</v>
       </c>
-      <c r="J156" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="K156" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -7063,13 +7063,13 @@
         <v>534</v>
       </c>
       <c r="J157" t="s">
-        <v>537</v>
-      </c>
-      <c r="L157" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K157" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -7097,11 +7097,11 @@
       <c r="I158" t="s">
         <v>532</v>
       </c>
-      <c r="J158" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="K158" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -7129,11 +7129,11 @@
       <c r="I159" t="s">
         <v>532</v>
       </c>
-      <c r="J159" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="K159" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -7162,13 +7162,13 @@
         <v>534</v>
       </c>
       <c r="J160" t="s">
-        <v>537</v>
-      </c>
-      <c r="L160" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K160" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -7197,13 +7197,13 @@
         <v>533</v>
       </c>
       <c r="J161" t="s">
-        <v>537</v>
-      </c>
-      <c r="L161" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K161" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -7232,13 +7232,13 @@
         <v>532</v>
       </c>
       <c r="J162" t="s">
-        <v>537</v>
-      </c>
-      <c r="L162" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K162" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -7266,11 +7266,11 @@
       <c r="I163" t="s">
         <v>534</v>
       </c>
-      <c r="J163" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="K163" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>44</v>
       </c>
@@ -7325,13 +7325,13 @@
         <v>534</v>
       </c>
       <c r="J165" t="s">
-        <v>537</v>
-      </c>
-      <c r="L165" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K165" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7359,11 +7359,11 @@
       <c r="I166" t="s">
         <v>534</v>
       </c>
-      <c r="J166" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="K166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7392,13 +7392,13 @@
         <v>534</v>
       </c>
       <c r="J167" t="s">
-        <v>536</v>
-      </c>
-      <c r="L167" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K167" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -7455,11 +7455,11 @@
       <c r="I169" t="s">
         <v>533</v>
       </c>
-      <c r="J169" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="K169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -7487,11 +7487,11 @@
       <c r="I170" t="s">
         <v>534</v>
       </c>
-      <c r="J170" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="K170" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -7520,13 +7520,13 @@
         <v>534</v>
       </c>
       <c r="J171" t="s">
-        <v>537</v>
-      </c>
-      <c r="L171" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K171" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -7554,11 +7554,11 @@
       <c r="I172" t="s">
         <v>533</v>
       </c>
-      <c r="J172" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="K172" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -7586,11 +7586,11 @@
       <c r="I173" t="s">
         <v>533</v>
       </c>
-      <c r="J173" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="K173" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -7619,13 +7619,13 @@
         <v>534</v>
       </c>
       <c r="J174" t="s">
-        <v>536</v>
-      </c>
-      <c r="L174" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K174" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -7653,11 +7653,11 @@
       <c r="I175" t="s">
         <v>532</v>
       </c>
-      <c r="J175" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="K175" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -7686,13 +7686,13 @@
         <v>533</v>
       </c>
       <c r="J176" t="s">
-        <v>537</v>
-      </c>
-      <c r="L176" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K176" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -7721,13 +7721,13 @@
         <v>534</v>
       </c>
       <c r="J177" t="s">
-        <v>537</v>
-      </c>
-      <c r="L177" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K177" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -7755,11 +7755,11 @@
       <c r="I178" t="s">
         <v>533</v>
       </c>
-      <c r="J178" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="K178" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>50</v>
       </c>
@@ -7813,11 +7813,11 @@
       <c r="I180" t="s">
         <v>533</v>
       </c>
-      <c r="J180" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="K180" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -7846,13 +7846,13 @@
         <v>534</v>
       </c>
       <c r="J181" t="s">
-        <v>537</v>
-      </c>
-      <c r="L181" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K181" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -7881,13 +7881,13 @@
         <v>534</v>
       </c>
       <c r="J182" t="s">
-        <v>537</v>
-      </c>
-      <c r="L182" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K182" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -7915,11 +7915,11 @@
       <c r="I183" t="s">
         <v>533</v>
       </c>
-      <c r="J183" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="K183" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -7947,11 +7947,11 @@
       <c r="I184" t="s">
         <v>532</v>
       </c>
-      <c r="J184" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="K184" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -8006,13 +8006,13 @@
         <v>533</v>
       </c>
       <c r="J186" t="s">
-        <v>536</v>
-      </c>
-      <c r="L186" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K186" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -8040,11 +8040,11 @@
       <c r="I187" t="s">
         <v>533</v>
       </c>
-      <c r="J187" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="K187" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -8072,11 +8072,11 @@
       <c r="I188" t="s">
         <v>532</v>
       </c>
-      <c r="J188" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="K188" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -8107,11 +8107,11 @@
       <c r="J189" t="s">
         <v>536</v>
       </c>
-      <c r="L189" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="K189" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -8139,11 +8139,11 @@
       <c r="I190" t="s">
         <v>533</v>
       </c>
-      <c r="J190" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="K190" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -8171,11 +8171,11 @@
       <c r="I191" t="s">
         <v>534</v>
       </c>
-      <c r="J191" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="K191" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -8206,11 +8206,11 @@
       <c r="J192" t="s">
         <v>536</v>
       </c>
-      <c r="L192" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="K192" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -8239,13 +8239,13 @@
         <v>534</v>
       </c>
       <c r="J193" t="s">
-        <v>537</v>
-      </c>
-      <c r="L193" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K193" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -8273,11 +8273,11 @@
       <c r="I194" t="s">
         <v>534</v>
       </c>
-      <c r="J194" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="K194" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>52</v>
       </c>
@@ -8306,13 +8306,13 @@
         <v>534</v>
       </c>
       <c r="J195" t="s">
-        <v>537</v>
-      </c>
-      <c r="L195" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K195" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>190</v>
       </c>
@@ -8341,13 +8341,13 @@
         <v>532</v>
       </c>
       <c r="J196" t="s">
-        <v>537</v>
-      </c>
-      <c r="L196" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+        <v>540</v>
+      </c>
+      <c r="K196" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>191</v>
       </c>
@@ -8376,13 +8376,13 @@
         <v>532</v>
       </c>
       <c r="J197" t="s">
-        <v>537</v>
-      </c>
-      <c r="L197" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K197" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>192</v>
       </c>
@@ -8410,11 +8410,11 @@
       <c r="I198" t="s">
         <v>532</v>
       </c>
-      <c r="J198" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="K198" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>193</v>
       </c>
@@ -8443,13 +8443,13 @@
         <v>534</v>
       </c>
       <c r="J199" t="s">
-        <v>537</v>
-      </c>
-      <c r="L199" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K199" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>194</v>
       </c>
@@ -8478,13 +8478,13 @@
         <v>532</v>
       </c>
       <c r="J200" t="s">
-        <v>536</v>
-      </c>
-      <c r="L200" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K200" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>54</v>
       </c>
@@ -8512,11 +8512,11 @@
       <c r="I201" t="s">
         <v>534</v>
       </c>
-      <c r="J201" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="K201" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>195</v>
       </c>
@@ -8545,13 +8545,13 @@
         <v>532</v>
       </c>
       <c r="J202" t="s">
-        <v>536</v>
-      </c>
-      <c r="L202" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K202" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>196</v>
       </c>
@@ -8580,13 +8580,13 @@
         <v>532</v>
       </c>
       <c r="J203" t="s">
-        <v>536</v>
-      </c>
-      <c r="L203" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K203" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -8614,11 +8614,11 @@
       <c r="I204" t="s">
         <v>534</v>
       </c>
-      <c r="J204" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="K204" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>197</v>
       </c>
@@ -8647,13 +8647,13 @@
         <v>532</v>
       </c>
       <c r="J205" t="s">
-        <v>536</v>
-      </c>
-      <c r="L205" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K205" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>198</v>
       </c>
@@ -8682,13 +8682,13 @@
         <v>534</v>
       </c>
       <c r="J206" t="s">
-        <v>537</v>
-      </c>
-      <c r="L206" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K206" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>199</v>
       </c>
@@ -8719,11 +8719,11 @@
       <c r="J207" t="s">
         <v>536</v>
       </c>
-      <c r="L207" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="K207" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>200</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>56</v>
       </c>
@@ -8777,11 +8777,11 @@
       <c r="I209" t="s">
         <v>533</v>
       </c>
-      <c r="J209" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="K209" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -8809,11 +8809,11 @@
       <c r="I210" t="s">
         <v>533</v>
       </c>
-      <c r="J210" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="K210" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>39</v>
       </c>
@@ -8841,11 +8841,11 @@
       <c r="I211" t="s">
         <v>534</v>
       </c>
-      <c r="J211" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="K211" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>201</v>
       </c>
@@ -8874,13 +8874,13 @@
         <v>532</v>
       </c>
       <c r="J212" t="s">
-        <v>536</v>
-      </c>
-      <c r="L212" t="s">
+        <v>540</v>
+      </c>
+      <c r="K212" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>202</v>
       </c>
@@ -8908,11 +8908,11 @@
       <c r="I213" t="s">
         <v>533</v>
       </c>
-      <c r="J213" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="K213" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>58</v>
       </c>
@@ -8966,11 +8966,11 @@
       <c r="I215" t="s">
         <v>533</v>
       </c>
-      <c r="J215" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="K215" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>204</v>
       </c>
@@ -8998,11 +8998,11 @@
       <c r="I216" t="s">
         <v>534</v>
       </c>
-      <c r="J216" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="K216" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>205</v>
       </c>
@@ -9030,11 +9030,11 @@
       <c r="I217" t="s">
         <v>533</v>
       </c>
-      <c r="J217" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="K217" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>206</v>
       </c>
@@ -9063,13 +9063,13 @@
         <v>533</v>
       </c>
       <c r="J218" t="s">
-        <v>536</v>
-      </c>
-      <c r="L218" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K218" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>207</v>
       </c>
@@ -9098,13 +9098,13 @@
         <v>534</v>
       </c>
       <c r="J219" t="s">
-        <v>536</v>
-      </c>
-      <c r="L219" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K219" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>210</v>
       </c>
@@ -9184,11 +9184,11 @@
       <c r="I222" t="s">
         <v>533</v>
       </c>
-      <c r="J222" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="K222" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>211</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>61</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>62</v>
       </c>
@@ -9269,13 +9269,13 @@
         <v>533</v>
       </c>
       <c r="J225" t="s">
-        <v>536</v>
-      </c>
-      <c r="L225" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K225" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>63</v>
       </c>
@@ -9303,11 +9303,11 @@
       <c r="I226" t="s">
         <v>533</v>
       </c>
-      <c r="J226" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12">
+      <c r="K226" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>64</v>
       </c>
@@ -9335,11 +9335,11 @@
       <c r="I227" t="s">
         <v>533</v>
       </c>
-      <c r="J227" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="K227" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -9367,11 +9367,11 @@
       <c r="I228" t="s">
         <v>534</v>
       </c>
-      <c r="J228" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="K228" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>213</v>
       </c>
@@ -9399,11 +9399,11 @@
       <c r="I229" t="s">
         <v>533</v>
       </c>
-      <c r="J229" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12">
+      <c r="K229" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>66</v>
       </c>
@@ -9432,13 +9432,13 @@
         <v>534</v>
       </c>
       <c r="J230" t="s">
-        <v>537</v>
-      </c>
-      <c r="L230" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K230" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>214</v>
       </c>
@@ -9466,11 +9466,11 @@
       <c r="I231" t="s">
         <v>534</v>
       </c>
-      <c r="J231" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12">
+      <c r="K231" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>67</v>
       </c>
@@ -9499,13 +9499,13 @@
         <v>532</v>
       </c>
       <c r="J232" t="s">
-        <v>536</v>
-      </c>
-      <c r="L232" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K232" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>215</v>
       </c>
@@ -9533,11 +9533,11 @@
       <c r="I233" t="s">
         <v>533</v>
       </c>
-      <c r="J233" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12">
+      <c r="K233" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>68</v>
       </c>
@@ -9566,13 +9566,13 @@
         <v>533</v>
       </c>
       <c r="J234" t="s">
-        <v>537</v>
-      </c>
-      <c r="L234" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K234" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>69</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -9630,13 +9630,13 @@
         <v>534</v>
       </c>
       <c r="J236" t="s">
-        <v>536</v>
-      </c>
-      <c r="L236" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K236" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>217</v>
       </c>
@@ -9665,13 +9665,13 @@
         <v>533</v>
       </c>
       <c r="J237" t="s">
-        <v>536</v>
-      </c>
-      <c r="L237" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12">
+        <v>537</v>
+      </c>
+      <c r="K237" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>218</v>
       </c>
@@ -9699,11 +9699,11 @@
       <c r="I238" t="s">
         <v>534</v>
       </c>
-      <c r="J238" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12">
+      <c r="K238" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>219</v>
       </c>
@@ -9731,11 +9731,11 @@
       <c r="I239" t="s">
         <v>534</v>
       </c>
-      <c r="J239" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12">
+      <c r="K239" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>70</v>
       </c>
@@ -9763,8 +9763,8 @@
       <c r="I240" t="s">
         <v>533</v>
       </c>
-      <c r="J240" t="s">
-        <v>536</v>
+      <c r="K240" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9796,10 +9796,10 @@
         <v>532</v>
       </c>
       <c r="J241" t="s">
-        <v>537</v>
-      </c>
-      <c r="L241" t="s">
-        <v>540</v>
+        <v>536</v>
+      </c>
+      <c r="K241" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9831,10 +9831,10 @@
         <v>534</v>
       </c>
       <c r="J242" t="s">
-        <v>536</v>
-      </c>
-      <c r="L242" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K242" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9865,11 +9865,11 @@
       <c r="I243" t="s">
         <v>534</v>
       </c>
-      <c r="K243" t="s">
-        <v>538</v>
+      <c r="J243" t="s">
+        <v>536</v>
       </c>
       <c r="L243" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9900,8 +9900,8 @@
       <c r="I244" t="s">
         <v>533</v>
       </c>
-      <c r="J244" t="s">
-        <v>536</v>
+      <c r="K244" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9959,10 +9959,10 @@
         <v>956.25</v>
       </c>
       <c r="J246" t="s">
-        <v>536</v>
-      </c>
-      <c r="L246" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K246" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9993,8 +9993,8 @@
       <c r="I247" t="s">
         <v>532</v>
       </c>
-      <c r="J247" t="s">
-        <v>537</v>
+      <c r="K247" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -10025,8 +10025,8 @@
       <c r="I248" t="s">
         <v>534</v>
       </c>
-      <c r="J248" t="s">
-        <v>536</v>
+      <c r="K248" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -10057,8 +10057,8 @@
       <c r="I249" t="s">
         <v>534</v>
       </c>
-      <c r="J249" t="s">
-        <v>536</v>
+      <c r="K249" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10089,8 +10089,8 @@
       <c r="I250" t="s">
         <v>534</v>
       </c>
-      <c r="J250" t="s">
-        <v>536</v>
+      <c r="K250" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10121,8 +10121,8 @@
       <c r="I251" t="s">
         <v>533</v>
       </c>
-      <c r="J251" t="s">
-        <v>536</v>
+      <c r="K251" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -10154,10 +10154,10 @@
         <v>534</v>
       </c>
       <c r="J252" t="s">
-        <v>536</v>
-      </c>
-      <c r="L252" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K252" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -10188,8 +10188,8 @@
       <c r="I253" t="s">
         <v>533</v>
       </c>
-      <c r="J253" t="s">
-        <v>537</v>
+      <c r="K253" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10220,8 +10220,8 @@
       <c r="I254" t="s">
         <v>533</v>
       </c>
-      <c r="J254" t="s">
-        <v>536</v>
+      <c r="K254" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10252,8 +10252,8 @@
       <c r="I255" t="s">
         <v>533</v>
       </c>
-      <c r="J255" t="s">
-        <v>536</v>
+      <c r="K255" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10284,11 +10284,11 @@
       <c r="I256" t="s">
         <v>534</v>
       </c>
-      <c r="J256" t="s">
-        <v>536</v>
-      </c>
       <c r="K256" t="s">
-        <v>539</v>
+        <v>544</v>
+      </c>
+      <c r="L256" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10377,8 +10377,8 @@
       <c r="J259" t="s">
         <v>536</v>
       </c>
-      <c r="L259" t="s">
-        <v>540</v>
+      <c r="K259" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10436,9 +10436,9 @@
         <v>533</v>
       </c>
       <c r="J261" t="s">
-        <v>536</v>
-      </c>
-      <c r="L261" t="s">
+        <v>540</v>
+      </c>
+      <c r="K261" t="s">
         <v>544</v>
       </c>
     </row>
@@ -10470,11 +10470,11 @@
       <c r="I262" t="s">
         <v>532</v>
       </c>
-      <c r="J262" t="s">
-        <v>536</v>
-      </c>
       <c r="K262" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L262" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10531,8 +10531,8 @@
       <c r="I264" t="s">
         <v>532</v>
       </c>
-      <c r="J264" t="s">
-        <v>536</v>
+      <c r="K264" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10564,10 +10564,10 @@
         <v>533</v>
       </c>
       <c r="J265" t="s">
-        <v>536</v>
-      </c>
-      <c r="L265" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="K265" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10598,11 +10598,11 @@
       <c r="I266" t="s">
         <v>534</v>
       </c>
-      <c r="J266" t="s">
-        <v>536</v>
-      </c>
       <c r="K266" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L266" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10634,10 +10634,10 @@
         <v>533</v>
       </c>
       <c r="J267" t="s">
-        <v>536</v>
-      </c>
-      <c r="L267" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="K267" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10671,8 +10671,8 @@
       <c r="J268" t="s">
         <v>536</v>
       </c>
-      <c r="L268" t="s">
-        <v>540</v>
+      <c r="K268" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10703,11 +10703,11 @@
       <c r="I269" t="s">
         <v>532</v>
       </c>
-      <c r="J269" t="s">
-        <v>536</v>
-      </c>
       <c r="K269" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L269" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10791,13 +10791,13 @@
         <v>533</v>
       </c>
       <c r="J272" t="s">
-        <v>536</v>
-      </c>
-      <c r="L272" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12">
+        <v>537</v>
+      </c>
+      <c r="K272" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" t="s">
         <v>83</v>
       </c>
@@ -10826,13 +10826,13 @@
         <v>533</v>
       </c>
       <c r="J273" t="s">
-        <v>536</v>
-      </c>
-      <c r="L273" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12">
+        <v>537</v>
+      </c>
+      <c r="K273" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" t="s">
         <v>237</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:11">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -10880,11 +10880,11 @@
       <c r="I275" t="s">
         <v>533</v>
       </c>
-      <c r="J275" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="K275" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -10912,11 +10912,11 @@
       <c r="I276" t="s">
         <v>533</v>
       </c>
-      <c r="J276" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="K276" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" t="s">
         <v>240</v>
       </c>
@@ -10944,11 +10944,11 @@
       <c r="I277" t="s">
         <v>533</v>
       </c>
-      <c r="J277" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12">
+      <c r="K277" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" t="s">
         <v>241</v>
       </c>
@@ -10976,11 +10976,11 @@
       <c r="I278" t="s">
         <v>533</v>
       </c>
-      <c r="J278" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12">
+      <c r="K278" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" t="s">
         <v>242</v>
       </c>
@@ -11008,11 +11008,11 @@
       <c r="I279" t="s">
         <v>533</v>
       </c>
-      <c r="J279" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="K279" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" t="s">
         <v>243</v>
       </c>
@@ -11040,11 +11040,11 @@
       <c r="I280" t="s">
         <v>533</v>
       </c>
-      <c r="J280" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="K280" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" t="s">
         <v>60</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:11">
       <c r="A282" t="s">
         <v>244</v>
       </c>
@@ -11098,11 +11098,11 @@
       <c r="I282" t="s">
         <v>533</v>
       </c>
-      <c r="J282" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
+      <c r="K282" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" t="s">
         <v>65</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:11">
       <c r="A284" t="s">
         <v>245</v>
       </c>
@@ -11156,11 +11156,11 @@
       <c r="I284" t="s">
         <v>532</v>
       </c>
-      <c r="J284" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="K284" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" t="s">
         <v>246</v>
       </c>
@@ -11188,11 +11188,11 @@
       <c r="I285" t="s">
         <v>532</v>
       </c>
-      <c r="J285" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
+      <c r="K285" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" t="s">
         <v>205</v>
       </c>
@@ -11220,11 +11220,11 @@
       <c r="I286" t="s">
         <v>533</v>
       </c>
-      <c r="J286" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
+      <c r="K286" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" t="s">
         <v>212</v>
       </c>
@@ -11252,11 +11252,11 @@
       <c r="I287" t="s">
         <v>534</v>
       </c>
-      <c r="J287" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
+      <c r="K287" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" t="s">
         <v>36</v>
       </c>
@@ -11285,13 +11285,13 @@
         <v>533</v>
       </c>
       <c r="J288" t="s">
-        <v>537</v>
-      </c>
-      <c r="L288" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K288" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" t="s">
         <v>235</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:11">
       <c r="A290" t="s">
         <v>247</v>
       </c>
@@ -11345,11 +11345,11 @@
       <c r="I290" t="s">
         <v>532</v>
       </c>
-      <c r="J290" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12">
+      <c r="K290" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" t="s">
         <v>186</v>
       </c>
@@ -11377,11 +11377,11 @@
       <c r="I291" t="s">
         <v>534</v>
       </c>
-      <c r="J291" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
+      <c r="K291" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" t="s">
         <v>104</v>
       </c>
@@ -11409,11 +11409,11 @@
       <c r="I292" t="s">
         <v>534</v>
       </c>
-      <c r="J292" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12">
+      <c r="K292" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" t="s">
         <v>76</v>
       </c>
@@ -11442,13 +11442,13 @@
         <v>534</v>
       </c>
       <c r="J293" t="s">
-        <v>536</v>
-      </c>
-      <c r="L293" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K293" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" t="s">
         <v>164</v>
       </c>
@@ -11476,11 +11476,11 @@
       <c r="I294" t="s">
         <v>534</v>
       </c>
-      <c r="J294" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12">
+      <c r="K294" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" t="s">
         <v>198</v>
       </c>
@@ -11509,13 +11509,13 @@
         <v>534</v>
       </c>
       <c r="J295" t="s">
-        <v>537</v>
-      </c>
-      <c r="L295" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K295" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" t="s">
         <v>71</v>
       </c>
@@ -11544,13 +11544,13 @@
         <v>534</v>
       </c>
       <c r="J296" t="s">
-        <v>536</v>
-      </c>
-      <c r="L296" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K296" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" t="s">
         <v>174</v>
       </c>
@@ -11579,13 +11579,13 @@
         <v>534</v>
       </c>
       <c r="J297" t="s">
-        <v>537</v>
-      </c>
-      <c r="L297" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K297" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -11614,13 +11614,13 @@
         <v>533</v>
       </c>
       <c r="J298" t="s">
-        <v>537</v>
-      </c>
-      <c r="L298" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K298" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -11649,13 +11649,13 @@
         <v>533</v>
       </c>
       <c r="J299" t="s">
-        <v>537</v>
-      </c>
-      <c r="L299" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K299" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" t="s">
         <v>70</v>
       </c>
@@ -11683,11 +11683,11 @@
       <c r="I300" t="s">
         <v>533</v>
       </c>
-      <c r="J300" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12">
+      <c r="K300" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -11718,11 +11718,11 @@
       <c r="J301" t="s">
         <v>536</v>
       </c>
-      <c r="L301" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12">
+      <c r="K301" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" t="s">
         <v>248</v>
       </c>
@@ -11750,11 +11750,11 @@
       <c r="I302" t="s">
         <v>534</v>
       </c>
-      <c r="J302" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12">
+      <c r="K302" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" t="s">
         <v>22</v>
       </c>
@@ -11783,13 +11783,13 @@
         <v>534</v>
       </c>
       <c r="J303" t="s">
-        <v>537</v>
-      </c>
-      <c r="L303" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K303" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -11818,10 +11818,10 @@
         <v>533</v>
       </c>
       <c r="J304" t="s">
-        <v>537</v>
-      </c>
-      <c r="L304" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K304" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11853,10 +11853,10 @@
         <v>533</v>
       </c>
       <c r="J305" t="s">
-        <v>537</v>
-      </c>
-      <c r="L305" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K305" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11887,8 +11887,8 @@
       <c r="I306" t="s">
         <v>533</v>
       </c>
-      <c r="J306" t="s">
-        <v>537</v>
+      <c r="K306" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11920,10 +11920,10 @@
         <v>533</v>
       </c>
       <c r="J307" t="s">
-        <v>537</v>
-      </c>
-      <c r="L307" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K307" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11955,10 +11955,10 @@
         <v>533</v>
       </c>
       <c r="J308" t="s">
-        <v>536</v>
-      </c>
-      <c r="L308" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K308" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11990,10 +11990,10 @@
         <v>533</v>
       </c>
       <c r="J309" t="s">
-        <v>536</v>
-      </c>
-      <c r="L309" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K309" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -12024,11 +12024,11 @@
       <c r="I310" t="s">
         <v>532</v>
       </c>
-      <c r="J310" t="s">
-        <v>536</v>
-      </c>
       <c r="K310" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L310" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -12060,10 +12060,10 @@
         <v>534</v>
       </c>
       <c r="J311" t="s">
-        <v>537</v>
-      </c>
-      <c r="L311" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K311" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -12095,10 +12095,10 @@
         <v>534</v>
       </c>
       <c r="J312" t="s">
-        <v>536</v>
-      </c>
-      <c r="L312" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K312" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -12130,10 +12130,10 @@
         <v>534</v>
       </c>
       <c r="J313" t="s">
-        <v>536</v>
-      </c>
-      <c r="L313" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K313" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -12193,8 +12193,8 @@
       <c r="J315" t="s">
         <v>536</v>
       </c>
-      <c r="L315" t="s">
-        <v>540</v>
+      <c r="K315" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -12225,11 +12225,11 @@
       <c r="I316" t="s">
         <v>534</v>
       </c>
-      <c r="J316" t="s">
-        <v>536</v>
-      </c>
       <c r="K316" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L316" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -12260,11 +12260,11 @@
       <c r="I317" t="s">
         <v>534</v>
       </c>
-      <c r="J317" t="s">
-        <v>536</v>
-      </c>
       <c r="K317" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L317" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12321,8 +12321,8 @@
       <c r="I319" t="s">
         <v>534</v>
       </c>
-      <c r="J319" t="s">
-        <v>537</v>
+      <c r="K319" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12353,11 +12353,11 @@
       <c r="I320" t="s">
         <v>534</v>
       </c>
-      <c r="J320" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
       <c r="A321" t="s">
         <v>253</v>
       </c>
@@ -12385,11 +12385,11 @@
       <c r="I321" t="s">
         <v>532</v>
       </c>
-      <c r="J321" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
       <c r="A322" t="s">
         <v>254</v>
       </c>
@@ -12417,11 +12417,11 @@
       <c r="I322" t="s">
         <v>532</v>
       </c>
-      <c r="J322" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
       <c r="A323" t="s">
         <v>255</v>
       </c>
@@ -12449,11 +12449,11 @@
       <c r="I323" t="s">
         <v>532</v>
       </c>
-      <c r="J323" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
       <c r="A324" t="s">
         <v>255</v>
       </c>
@@ -12481,11 +12481,11 @@
       <c r="I324" t="s">
         <v>532</v>
       </c>
-      <c r="J324" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
       <c r="A325" t="s">
         <v>255</v>
       </c>
@@ -12513,11 +12513,11 @@
       <c r="I325" t="s">
         <v>532</v>
       </c>
-      <c r="J325" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
       <c r="A326" t="s">
         <v>256</v>
       </c>
@@ -12545,11 +12545,11 @@
       <c r="I326" t="s">
         <v>532</v>
       </c>
-      <c r="J326" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
       <c r="A327" t="s">
         <v>256</v>
       </c>
@@ -12577,11 +12577,11 @@
       <c r="I327" t="s">
         <v>532</v>
       </c>
-      <c r="J327" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
       <c r="A328" t="s">
         <v>256</v>
       </c>
@@ -12609,11 +12609,11 @@
       <c r="I328" t="s">
         <v>532</v>
       </c>
-      <c r="J328" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
       <c r="A329" t="s">
         <v>256</v>
       </c>
@@ -12641,11 +12641,11 @@
       <c r="I329" t="s">
         <v>532</v>
       </c>
-      <c r="J329" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
       <c r="A330" t="s">
         <v>89</v>
       </c>
@@ -12673,11 +12673,11 @@
       <c r="I330" t="s">
         <v>534</v>
       </c>
-      <c r="J330" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11">
       <c r="A331" t="s">
         <v>39</v>
       </c>
@@ -12705,11 +12705,11 @@
       <c r="I331" t="s">
         <v>534</v>
       </c>
-      <c r="J331" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
+      <c r="K331" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11">
       <c r="A332" t="s">
         <v>257</v>
       </c>
@@ -12737,11 +12737,11 @@
       <c r="I332" t="s">
         <v>532</v>
       </c>
-      <c r="J332" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11">
       <c r="A333" t="s">
         <v>258</v>
       </c>
@@ -12769,11 +12769,11 @@
       <c r="I333" t="s">
         <v>532</v>
       </c>
-      <c r="J333" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
+      <c r="K333" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11">
       <c r="A334" t="s">
         <v>258</v>
       </c>
@@ -12801,11 +12801,11 @@
       <c r="I334" t="s">
         <v>532</v>
       </c>
-      <c r="J334" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
+      <c r="K334" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11">
       <c r="A335" t="s">
         <v>258</v>
       </c>
@@ -12833,11 +12833,11 @@
       <c r="I335" t="s">
         <v>532</v>
       </c>
-      <c r="J335" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
+      <c r="K335" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11">
       <c r="A336" t="s">
         <v>259</v>
       </c>
@@ -12865,11 +12865,11 @@
       <c r="I336" t="s">
         <v>532</v>
       </c>
-      <c r="J336" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12">
+      <c r="K336" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11">
       <c r="A337" t="s">
         <v>259</v>
       </c>
@@ -12897,11 +12897,11 @@
       <c r="I337" t="s">
         <v>532</v>
       </c>
-      <c r="J337" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12">
+      <c r="K337" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" t="s">
         <v>259</v>
       </c>
@@ -12929,11 +12929,11 @@
       <c r="I338" t="s">
         <v>532</v>
       </c>
-      <c r="J338" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12">
+      <c r="K338" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -12964,11 +12964,11 @@
       <c r="J339" t="s">
         <v>537</v>
       </c>
-      <c r="L339" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12">
+      <c r="K339" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11">
       <c r="A340" t="s">
         <v>65</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:11">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -13022,11 +13022,11 @@
       <c r="I341" t="s">
         <v>534</v>
       </c>
-      <c r="J341" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12">
+      <c r="K341" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11">
       <c r="A342" t="s">
         <v>262</v>
       </c>
@@ -13057,11 +13057,11 @@
       <c r="J342" t="s">
         <v>537</v>
       </c>
-      <c r="L342" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12">
+      <c r="K342" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11">
       <c r="A343" t="s">
         <v>263</v>
       </c>
@@ -13092,11 +13092,11 @@
       <c r="J343" t="s">
         <v>537</v>
       </c>
-      <c r="L343" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12">
+      <c r="K343" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11">
       <c r="A344" t="s">
         <v>260</v>
       </c>
@@ -13127,11 +13127,11 @@
       <c r="J344" t="s">
         <v>537</v>
       </c>
-      <c r="L344" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12">
+      <c r="K344" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11">
       <c r="A345" t="s">
         <v>264</v>
       </c>
@@ -13162,11 +13162,11 @@
       <c r="J345" t="s">
         <v>537</v>
       </c>
-      <c r="L345" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12">
+      <c r="K345" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11">
       <c r="A346" t="s">
         <v>265</v>
       </c>
@@ -13197,11 +13197,11 @@
       <c r="J346" t="s">
         <v>537</v>
       </c>
-      <c r="L346" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12">
+      <c r="K346" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
       <c r="A347" t="s">
         <v>263</v>
       </c>
@@ -13232,11 +13232,11 @@
       <c r="J347" t="s">
         <v>537</v>
       </c>
-      <c r="L347" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12">
+      <c r="K347" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11">
       <c r="A348" t="s">
         <v>266</v>
       </c>
@@ -13267,11 +13267,11 @@
       <c r="J348" t="s">
         <v>537</v>
       </c>
-      <c r="L348" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12">
+      <c r="K348" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11">
       <c r="A349" t="s">
         <v>267</v>
       </c>
@@ -13299,11 +13299,11 @@
       <c r="I349" t="s">
         <v>532</v>
       </c>
-      <c r="J349" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12">
+      <c r="K349" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11">
       <c r="A350" t="s">
         <v>265</v>
       </c>
@@ -13334,11 +13334,11 @@
       <c r="J350" t="s">
         <v>537</v>
       </c>
-      <c r="L350" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12">
+      <c r="K350" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11">
       <c r="A351" t="s">
         <v>262</v>
       </c>
@@ -13369,11 +13369,11 @@
       <c r="J351" t="s">
         <v>537</v>
       </c>
-      <c r="L351" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12">
+      <c r="K351" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11">
       <c r="A352" t="s">
         <v>268</v>
       </c>
@@ -13401,11 +13401,11 @@
       <c r="I352" t="s">
         <v>534</v>
       </c>
-      <c r="J352" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12">
+      <c r="K352" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11">
       <c r="A353" t="s">
         <v>121</v>
       </c>
@@ -13433,11 +13433,11 @@
       <c r="I353" t="s">
         <v>532</v>
       </c>
-      <c r="J353" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12">
+      <c r="K353" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11">
       <c r="A354" t="s">
         <v>269</v>
       </c>
@@ -13465,11 +13465,11 @@
       <c r="I354" t="s">
         <v>532</v>
       </c>
-      <c r="J354" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12">
+      <c r="K354" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11">
       <c r="A355" t="s">
         <v>270</v>
       </c>
@@ -13497,11 +13497,11 @@
       <c r="I355" t="s">
         <v>534</v>
       </c>
-      <c r="J355" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12">
+      <c r="K355" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11">
       <c r="A356" t="s">
         <v>271</v>
       </c>
@@ -13529,11 +13529,11 @@
       <c r="I356" t="s">
         <v>532</v>
       </c>
-      <c r="J356" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12">
+      <c r="K356" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
       <c r="A357" t="s">
         <v>272</v>
       </c>
@@ -13561,11 +13561,11 @@
       <c r="I357" t="s">
         <v>534</v>
       </c>
-      <c r="J357" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12">
+      <c r="K357" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
       <c r="A358" t="s">
         <v>273</v>
       </c>
@@ -13593,11 +13593,11 @@
       <c r="I358" t="s">
         <v>532</v>
       </c>
-      <c r="J358" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12">
+      <c r="K358" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
       <c r="A359" t="s">
         <v>274</v>
       </c>
@@ -13625,11 +13625,11 @@
       <c r="I359" t="s">
         <v>532</v>
       </c>
-      <c r="J359" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12">
+      <c r="K359" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
       <c r="A360" t="s">
         <v>275</v>
       </c>
@@ -13657,11 +13657,11 @@
       <c r="I360" t="s">
         <v>532</v>
       </c>
-      <c r="J360" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12">
+      <c r="K360" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
       <c r="A361" t="s">
         <v>276</v>
       </c>
@@ -13690,13 +13690,13 @@
         <v>534</v>
       </c>
       <c r="J361" t="s">
-        <v>537</v>
-      </c>
-      <c r="L361" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K361" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
       <c r="A362" t="s">
         <v>277</v>
       </c>
@@ -13725,13 +13725,13 @@
         <v>532</v>
       </c>
       <c r="J362" t="s">
-        <v>537</v>
-      </c>
-      <c r="L362" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K362" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
       <c r="A363" t="s">
         <v>278</v>
       </c>
@@ -13760,13 +13760,13 @@
         <v>534</v>
       </c>
       <c r="J363" t="s">
-        <v>537</v>
-      </c>
-      <c r="L363" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12">
+        <v>536</v>
+      </c>
+      <c r="K363" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
       <c r="A364" t="s">
         <v>279</v>
       </c>
@@ -13794,11 +13794,11 @@
       <c r="I364" t="s">
         <v>533</v>
       </c>
-      <c r="J364" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12">
+      <c r="K364" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
       <c r="A365" t="s">
         <v>280</v>
       </c>
@@ -13826,11 +13826,11 @@
       <c r="I365" t="s">
         <v>532</v>
       </c>
-      <c r="J365" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12">
+      <c r="K365" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
       <c r="A366" t="s">
         <v>281</v>
       </c>
@@ -13858,11 +13858,11 @@
       <c r="I366" t="s">
         <v>532</v>
       </c>
-      <c r="J366" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12">
+      <c r="K366" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
       <c r="A367" t="s">
         <v>22</v>
       </c>
@@ -13891,13 +13891,13 @@
         <v>534</v>
       </c>
       <c r="J367" t="s">
-        <v>537</v>
-      </c>
-      <c r="L367" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K367" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
       <c r="A368" t="s">
         <v>282</v>
       </c>
@@ -13925,11 +13925,11 @@
       <c r="I368" t="s">
         <v>532</v>
       </c>
-      <c r="J368" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12">
+      <c r="K368" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
       <c r="A369" t="s">
         <v>283</v>
       </c>
@@ -13957,11 +13957,11 @@
       <c r="I369" t="s">
         <v>534</v>
       </c>
-      <c r="J369" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12">
+      <c r="K369" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
       <c r="A370" t="s">
         <v>241</v>
       </c>
@@ -13989,11 +13989,11 @@
       <c r="I370" t="s">
         <v>533</v>
       </c>
-      <c r="J370" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12">
+      <c r="K370" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
       <c r="A371" t="s">
         <v>284</v>
       </c>
@@ -14022,13 +14022,13 @@
         <v>534</v>
       </c>
       <c r="J371" t="s">
-        <v>537</v>
-      </c>
-      <c r="L371" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K371" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372" t="s">
         <v>285</v>
       </c>
@@ -14056,11 +14056,11 @@
       <c r="I372" t="s">
         <v>533</v>
       </c>
-      <c r="J372" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12">
+      <c r="K372" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
       <c r="A373" t="s">
         <v>244</v>
       </c>
@@ -14088,11 +14088,11 @@
       <c r="I373" t="s">
         <v>533</v>
       </c>
-      <c r="J373" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12">
+      <c r="K373" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374" t="s">
         <v>240</v>
       </c>
@@ -14120,11 +14120,11 @@
       <c r="I374" t="s">
         <v>533</v>
       </c>
-      <c r="J374" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12">
+      <c r="K374" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -14153,13 +14153,13 @@
         <v>532</v>
       </c>
       <c r="J375" t="s">
-        <v>537</v>
-      </c>
-      <c r="L375" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K375" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" t="s">
         <v>38</v>
       </c>
@@ -14185,13 +14185,13 @@
         <v>293.25</v>
       </c>
       <c r="J376" t="s">
-        <v>537</v>
-      </c>
-      <c r="L376" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K376" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
       <c r="A377" t="s">
         <v>39</v>
       </c>
@@ -14219,11 +14219,11 @@
       <c r="I377" t="s">
         <v>534</v>
       </c>
-      <c r="J377" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12">
+      <c r="K377" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -14252,13 +14252,13 @@
         <v>533</v>
       </c>
       <c r="J378" t="s">
-        <v>536</v>
-      </c>
-      <c r="L378" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K378" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379" t="s">
         <v>258</v>
       </c>
@@ -14286,11 +14286,11 @@
       <c r="I379" t="s">
         <v>532</v>
       </c>
-      <c r="J379" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12">
+      <c r="K379" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
       <c r="A380" t="s">
         <v>247</v>
       </c>
@@ -14318,11 +14318,11 @@
       <c r="I380" t="s">
         <v>532</v>
       </c>
-      <c r="J380" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12">
+      <c r="K380" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381" t="s">
         <v>259</v>
       </c>
@@ -14350,11 +14350,11 @@
       <c r="I381" t="s">
         <v>532</v>
       </c>
-      <c r="J381" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12">
+      <c r="K381" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
       <c r="A382" t="s">
         <v>88</v>
       </c>
@@ -14383,13 +14383,13 @@
         <v>532</v>
       </c>
       <c r="J382" t="s">
-        <v>537</v>
-      </c>
-      <c r="L382" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K382" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
       <c r="A383" t="s">
         <v>286</v>
       </c>
@@ -14417,11 +14417,11 @@
       <c r="I383" t="s">
         <v>532</v>
       </c>
-      <c r="J383" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12">
+      <c r="K383" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
       <c r="A384" t="s">
         <v>169</v>
       </c>
@@ -14450,13 +14450,13 @@
         <v>534</v>
       </c>
       <c r="J384" t="s">
-        <v>537</v>
-      </c>
-      <c r="L384" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12">
+        <v>538</v>
+      </c>
+      <c r="K384" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>287</v>
       </c>
@@ -14484,11 +14484,11 @@
       <c r="I385" t="s">
         <v>532</v>
       </c>
-      <c r="J385" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12">
+      <c r="K385" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>288</v>
       </c>
@@ -14516,11 +14516,11 @@
       <c r="I386" t="s">
         <v>532</v>
       </c>
-      <c r="J386" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12">
+      <c r="K386" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
       <c r="A387" t="s">
         <v>288</v>
       </c>
@@ -14548,11 +14548,11 @@
       <c r="I387" t="s">
         <v>532</v>
       </c>
-      <c r="J387" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12">
+      <c r="K387" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
       <c r="A388" t="s">
         <v>288</v>
       </c>
@@ -14580,11 +14580,11 @@
       <c r="I388" t="s">
         <v>532</v>
       </c>
-      <c r="J388" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12">
+      <c r="K388" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>288</v>
       </c>
@@ -14612,11 +14612,11 @@
       <c r="I389" t="s">
         <v>532</v>
       </c>
-      <c r="J389" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12">
+      <c r="K389" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>288</v>
       </c>
@@ -14644,11 +14644,11 @@
       <c r="I390" t="s">
         <v>532</v>
       </c>
-      <c r="J390" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12">
+      <c r="K390" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>289</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>32</v>
       </c>
@@ -14703,13 +14703,13 @@
         <v>533</v>
       </c>
       <c r="J392" t="s">
-        <v>537</v>
-      </c>
-      <c r="L392" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K392" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
       <c r="A393" t="s">
         <v>60</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>290</v>
       </c>
@@ -14766,11 +14766,11 @@
       <c r="J394" t="s">
         <v>536</v>
       </c>
-      <c r="L394" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12">
+      <c r="K394" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>81</v>
       </c>
@@ -14801,11 +14801,11 @@
       <c r="J395" t="s">
         <v>536</v>
       </c>
-      <c r="L395" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12">
+      <c r="K395" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>65</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>36</v>
       </c>
@@ -14860,13 +14860,13 @@
         <v>533</v>
       </c>
       <c r="J397" t="s">
-        <v>537</v>
-      </c>
-      <c r="L397" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K397" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -14895,13 +14895,13 @@
         <v>533</v>
       </c>
       <c r="J398" t="s">
-        <v>537</v>
-      </c>
-      <c r="L398" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K398" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>74</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>30</v>
       </c>
@@ -14961,8 +14961,8 @@
       <c r="J400" t="s">
         <v>536</v>
       </c>
-      <c r="L400" t="s">
-        <v>540</v>
+      <c r="K400" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14993,8 +14993,8 @@
       <c r="I401" t="s">
         <v>534</v>
       </c>
-      <c r="J401" t="s">
-        <v>536</v>
+      <c r="K401" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -15051,8 +15051,8 @@
       <c r="I403" t="s">
         <v>532</v>
       </c>
-      <c r="J403" t="s">
-        <v>537</v>
+      <c r="K403" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -15112,8 +15112,8 @@
       <c r="J405" t="s">
         <v>536</v>
       </c>
-      <c r="L405" t="s">
-        <v>540</v>
+      <c r="K405" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -15145,10 +15145,10 @@
         <v>534</v>
       </c>
       <c r="J406" t="s">
-        <v>537</v>
-      </c>
-      <c r="L406" t="s">
-        <v>542</v>
+        <v>538</v>
+      </c>
+      <c r="K406" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -15179,8 +15179,8 @@
       <c r="I407" t="s">
         <v>532</v>
       </c>
-      <c r="J407" t="s">
-        <v>537</v>
+      <c r="K407" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -15211,8 +15211,8 @@
       <c r="I408" t="s">
         <v>533</v>
       </c>
-      <c r="J408" t="s">
-        <v>537</v>
+      <c r="K408" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -15243,8 +15243,8 @@
       <c r="I409" t="s">
         <v>534</v>
       </c>
-      <c r="J409" t="s">
-        <v>536</v>
+      <c r="K409" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -15275,11 +15275,11 @@
       <c r="I410" t="s">
         <v>532</v>
       </c>
-      <c r="J410" t="s">
-        <v>536</v>
-      </c>
       <c r="K410" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L410" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15310,8 +15310,8 @@
       <c r="I411" t="s">
         <v>533</v>
       </c>
-      <c r="J411" t="s">
-        <v>537</v>
+      <c r="K411" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15342,8 +15342,8 @@
       <c r="I412" t="s">
         <v>532</v>
       </c>
-      <c r="J412" t="s">
-        <v>537</v>
+      <c r="K412" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15374,11 +15374,11 @@
       <c r="I413" t="s">
         <v>532</v>
       </c>
-      <c r="J413" t="s">
-        <v>536</v>
-      </c>
       <c r="K413" t="s">
-        <v>539</v>
+        <v>544</v>
+      </c>
+      <c r="L413" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15410,10 +15410,10 @@
         <v>534</v>
       </c>
       <c r="J414" t="s">
-        <v>536</v>
-      </c>
-      <c r="L414" t="s">
-        <v>547</v>
+        <v>543</v>
+      </c>
+      <c r="K414" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15444,11 +15444,11 @@
       <c r="I415" t="s">
         <v>532</v>
       </c>
-      <c r="J415" t="s">
-        <v>536</v>
-      </c>
       <c r="K415" t="s">
-        <v>538</v>
+        <v>544</v>
+      </c>
+      <c r="L415" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15479,14 +15479,14 @@
       <c r="I416" t="s">
         <v>532</v>
       </c>
-      <c r="J416" t="s">
-        <v>536</v>
-      </c>
       <c r="K416" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12">
+        <v>544</v>
+      </c>
+      <c r="L416" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
       <c r="A417" t="s">
         <v>247</v>
       </c>
@@ -15508,11 +15508,11 @@
       <c r="I417" t="s">
         <v>532</v>
       </c>
-      <c r="J417" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12">
+      <c r="K417" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418" t="s">
         <v>198</v>
       </c>
@@ -15541,13 +15541,13 @@
         <v>534</v>
       </c>
       <c r="J418" t="s">
-        <v>537</v>
-      </c>
-      <c r="L418" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12">
+        <v>539</v>
+      </c>
+      <c r="K418" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419" t="s">
         <v>174</v>
       </c>
@@ -15576,10 +15576,10 @@
         <v>534</v>
       </c>
       <c r="J419" t="s">
-        <v>537</v>
-      </c>
-      <c r="L419" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="K419" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
